--- a/Data/Excel/FCFS/19.xlsx
+++ b/Data/Excel/FCFS/19.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F91"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2016,246 +2016,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>13.12</v>
-      </c>
-      <c r="C80" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D80" t="n">
-        <v>8</v>
-      </c>
-      <c r="E80" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="F80" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="C81" t="n">
-        <v>-2.05</v>
-      </c>
-      <c r="D81" t="n">
-        <v>8</v>
-      </c>
-      <c r="E81" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="F81" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="C82" t="n">
-        <v>-2.07</v>
-      </c>
-      <c r="D82" t="n">
-        <v>8</v>
-      </c>
-      <c r="E82" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="F82" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>11.52</v>
-      </c>
-      <c r="C83" t="n">
-        <v>-2.06</v>
-      </c>
-      <c r="D83" t="n">
-        <v>8</v>
-      </c>
-      <c r="E83" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="F83" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>10.99</v>
-      </c>
-      <c r="C84" t="n">
-        <v>-2.02</v>
-      </c>
-      <c r="D84" t="n">
-        <v>8</v>
-      </c>
-      <c r="E84" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="F84" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>10.46</v>
-      </c>
-      <c r="C85" t="n">
-        <v>-1.97</v>
-      </c>
-      <c r="D85" t="n">
-        <v>8</v>
-      </c>
-      <c r="E85" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="F85" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>9.93</v>
-      </c>
-      <c r="C86" t="n">
-        <v>-1.89</v>
-      </c>
-      <c r="D86" t="n">
-        <v>8</v>
-      </c>
-      <c r="E86" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="F86" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="C87" t="n">
-        <v>-1.8</v>
-      </c>
-      <c r="D87" t="n">
-        <v>8</v>
-      </c>
-      <c r="E87" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="F87" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="C88" t="n">
-        <v>-1.69</v>
-      </c>
-      <c r="D88" t="n">
-        <v>8</v>
-      </c>
-      <c r="E88" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="F88" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>8.369999999999999</v>
-      </c>
-      <c r="C89" t="n">
-        <v>-1.55</v>
-      </c>
-      <c r="D89" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="E89" t="n">
-        <v>3</v>
-      </c>
-      <c r="F89" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>7.88</v>
-      </c>
-      <c r="C90" t="n">
-        <v>-1.41</v>
-      </c>
-      <c r="D90" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="E90" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="F90" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>7.46</v>
-      </c>
-      <c r="C91" t="n">
-        <v>-1.26</v>
-      </c>
-      <c r="D91" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="E91" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="F91" t="b">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2267,7 +2027,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F91"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2318,7 +2078,7 @@
         <v>60.06</v>
       </c>
       <c r="D2" t="n">
-        <v>9.890000000000001</v>
+        <v>11.11</v>
       </c>
       <c r="E2" t="n">
         <v>-1.57</v>
@@ -2335,10 +2095,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>59.4</v>
+        <v>59.32</v>
       </c>
       <c r="D3" t="n">
-        <v>9.789999999999999</v>
+        <v>12.1</v>
       </c>
       <c r="E3" t="n">
         <v>-1.57</v>
@@ -2355,10 +2115,10 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>58.75</v>
+        <v>58.52</v>
       </c>
       <c r="D4" t="n">
-        <v>9.699999999999999</v>
+        <v>12.98</v>
       </c>
       <c r="E4" t="n">
         <v>-1.57</v>
@@ -2375,10 +2135,10 @@
         <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>58.1</v>
+        <v>57.65</v>
       </c>
       <c r="D5" t="n">
-        <v>9.619999999999999</v>
+        <v>13.76</v>
       </c>
       <c r="E5" t="n">
         <v>-1.57</v>
@@ -2395,10 +2155,10 @@
         <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>57.46</v>
+        <v>56.73</v>
       </c>
       <c r="D6" t="n">
-        <v>9.550000000000001</v>
+        <v>14.45</v>
       </c>
       <c r="E6" t="n">
         <v>-1.57</v>
@@ -2415,10 +2175,10 @@
         <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>56.83</v>
+        <v>55.77</v>
       </c>
       <c r="D7" t="n">
-        <v>9.49</v>
+        <v>15.07</v>
       </c>
       <c r="E7" t="n">
         <v>-1.57</v>
@@ -2435,10 +2195,10 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>56.19</v>
+        <v>54.77</v>
       </c>
       <c r="D8" t="n">
-        <v>9.44</v>
+        <v>15.62</v>
       </c>
       <c r="E8" t="n">
         <v>-1.57</v>
@@ -2455,10 +2215,10 @@
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>55.56</v>
+        <v>53.72</v>
       </c>
       <c r="D9" t="n">
-        <v>9.390000000000001</v>
+        <v>16.1</v>
       </c>
       <c r="E9" t="n">
         <v>-1.57</v>
@@ -2475,10 +2235,10 @@
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>54.94</v>
+        <v>52.65</v>
       </c>
       <c r="D10" t="n">
-        <v>9.35</v>
+        <v>16.54</v>
       </c>
       <c r="E10" t="n">
         <v>-1.57</v>
@@ -2495,10 +2255,10 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>54.31</v>
+        <v>51.55</v>
       </c>
       <c r="D11" t="n">
-        <v>9.31</v>
+        <v>16.92</v>
       </c>
       <c r="E11" t="n">
         <v>-1.57</v>
@@ -2515,10 +2275,10 @@
         <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>53.69</v>
+        <v>50.42</v>
       </c>
       <c r="D12" t="n">
-        <v>9.27</v>
+        <v>17.26</v>
       </c>
       <c r="E12" t="n">
         <v>-1.57</v>
@@ -2535,10 +2295,10 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>53.08</v>
+        <v>49.27</v>
       </c>
       <c r="D13" t="n">
-        <v>9.24</v>
+        <v>17.57</v>
       </c>
       <c r="E13" t="n">
         <v>-1.57</v>
@@ -2555,10 +2315,10 @@
         <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>52.46</v>
+        <v>48.1</v>
       </c>
       <c r="D14" t="n">
-        <v>9.220000000000001</v>
+        <v>17.84</v>
       </c>
       <c r="E14" t="n">
         <v>-1.57</v>
@@ -2575,10 +2335,10 @@
         <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>51.84</v>
+        <v>46.91</v>
       </c>
       <c r="D15" t="n">
-        <v>9.19</v>
+        <v>18.08</v>
       </c>
       <c r="E15" t="n">
         <v>-1.57</v>
@@ -2595,10 +2355,10 @@
         <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>51.23</v>
+        <v>45.7</v>
       </c>
       <c r="D16" t="n">
-        <v>9.17</v>
+        <v>18.29</v>
       </c>
       <c r="E16" t="n">
         <v>-1.57</v>
@@ -2615,10 +2375,10 @@
         <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>50.62</v>
+        <v>44.48</v>
       </c>
       <c r="D17" t="n">
-        <v>9.15</v>
+        <v>18.48</v>
       </c>
       <c r="E17" t="n">
         <v>-1.57</v>
@@ -2635,10 +2395,10 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>50.01</v>
+        <v>43.25</v>
       </c>
       <c r="D18" t="n">
-        <v>9.140000000000001</v>
+        <v>18.65</v>
       </c>
       <c r="E18" t="n">
         <v>-1.57</v>
@@ -2655,10 +2415,10 @@
         <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>49.4</v>
+        <v>42.01</v>
       </c>
       <c r="D19" t="n">
-        <v>9.119999999999999</v>
+        <v>18.8</v>
       </c>
       <c r="E19" t="n">
         <v>-1.57</v>
@@ -2675,10 +2435,10 @@
         <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>48.79</v>
+        <v>40.76</v>
       </c>
       <c r="D20" t="n">
-        <v>9.109999999999999</v>
+        <v>18.93</v>
       </c>
       <c r="E20" t="n">
         <v>-1.57</v>
@@ -2695,10 +2455,10 @@
         <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>48.19</v>
+        <v>39.49</v>
       </c>
       <c r="D21" t="n">
-        <v>9.09</v>
+        <v>19.05</v>
       </c>
       <c r="E21" t="n">
         <v>-1.57</v>
@@ -2715,10 +2475,10 @@
         <v>2</v>
       </c>
       <c r="C22" t="n">
-        <v>47.58</v>
+        <v>38.22</v>
       </c>
       <c r="D22" t="n">
-        <v>9.08</v>
+        <v>19.16</v>
       </c>
       <c r="E22" t="n">
         <v>-1.57</v>
@@ -2735,10 +2495,10 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>46.97</v>
+        <v>36.95</v>
       </c>
       <c r="D23" t="n">
-        <v>9.07</v>
+        <v>19.25</v>
       </c>
       <c r="E23" t="n">
         <v>-1.57</v>
@@ -2755,10 +2515,10 @@
         <v>2</v>
       </c>
       <c r="C24" t="n">
-        <v>46.37</v>
+        <v>35.66</v>
       </c>
       <c r="D24" t="n">
-        <v>9.07</v>
+        <v>19.33</v>
       </c>
       <c r="E24" t="n">
         <v>-1.57</v>
@@ -2775,10 +2535,10 @@
         <v>2</v>
       </c>
       <c r="C25" t="n">
-        <v>45.77</v>
+        <v>34.37</v>
       </c>
       <c r="D25" t="n">
-        <v>9.06</v>
+        <v>19.41</v>
       </c>
       <c r="E25" t="n">
         <v>-1.57</v>
@@ -2795,10 +2555,10 @@
         <v>2</v>
       </c>
       <c r="C26" t="n">
-        <v>45.16</v>
+        <v>33.08</v>
       </c>
       <c r="D26" t="n">
-        <v>9.050000000000001</v>
+        <v>19.47</v>
       </c>
       <c r="E26" t="n">
         <v>-1.57</v>
@@ -2815,10 +2575,10 @@
         <v>2</v>
       </c>
       <c r="C27" t="n">
-        <v>44.56</v>
+        <v>31.78</v>
       </c>
       <c r="D27" t="n">
-        <v>9.050000000000001</v>
+        <v>19.53</v>
       </c>
       <c r="E27" t="n">
         <v>-1.57</v>
@@ -2835,10 +2595,10 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>43.95</v>
+        <v>30.48</v>
       </c>
       <c r="D28" t="n">
-        <v>9.039999999999999</v>
+        <v>19.58</v>
       </c>
       <c r="E28" t="n">
         <v>-1.57</v>
@@ -2855,10 +2615,10 @@
         <v>2</v>
       </c>
       <c r="C29" t="n">
-        <v>43.35</v>
+        <v>29.17</v>
       </c>
       <c r="D29" t="n">
-        <v>9.039999999999999</v>
+        <v>19.63</v>
       </c>
       <c r="E29" t="n">
         <v>-1.57</v>
@@ -2875,10 +2635,10 @@
         <v>2</v>
       </c>
       <c r="C30" t="n">
-        <v>42.75</v>
+        <v>27.87</v>
       </c>
       <c r="D30" t="n">
-        <v>9.029999999999999</v>
+        <v>19.67</v>
       </c>
       <c r="E30" t="n">
         <v>-1.57</v>
@@ -2895,10 +2655,10 @@
         <v>2</v>
       </c>
       <c r="C31" t="n">
-        <v>42.15</v>
+        <v>26.55</v>
       </c>
       <c r="D31" t="n">
-        <v>9.029999999999999</v>
+        <v>19.71</v>
       </c>
       <c r="E31" t="n">
         <v>-1.57</v>
@@ -2915,10 +2675,10 @@
         <v>2</v>
       </c>
       <c r="C32" t="n">
-        <v>41.55</v>
+        <v>25.24</v>
       </c>
       <c r="D32" t="n">
-        <v>9.029999999999999</v>
+        <v>19.74</v>
       </c>
       <c r="E32" t="n">
         <v>-1.57</v>
@@ -2935,10 +2695,10 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>40.94</v>
+        <v>23.92</v>
       </c>
       <c r="D33" t="n">
-        <v>9.02</v>
+        <v>19.77</v>
       </c>
       <c r="E33" t="n">
         <v>-1.57</v>
@@ -2955,10 +2715,10 @@
         <v>2</v>
       </c>
       <c r="C34" t="n">
-        <v>40.34</v>
+        <v>22.61</v>
       </c>
       <c r="D34" t="n">
-        <v>9.02</v>
+        <v>19.79</v>
       </c>
       <c r="E34" t="n">
         <v>-1.57</v>
@@ -2975,10 +2735,10 @@
         <v>2</v>
       </c>
       <c r="C35" t="n">
-        <v>39.74</v>
+        <v>21.29</v>
       </c>
       <c r="D35" t="n">
-        <v>9.02</v>
+        <v>19.82</v>
       </c>
       <c r="E35" t="n">
         <v>-1.57</v>
@@ -2995,10 +2755,10 @@
         <v>2</v>
       </c>
       <c r="C36" t="n">
-        <v>39.14</v>
+        <v>19.97</v>
       </c>
       <c r="D36" t="n">
-        <v>9.02</v>
+        <v>19.84</v>
       </c>
       <c r="E36" t="n">
         <v>-1.57</v>
@@ -3015,10 +2775,10 @@
         <v>2</v>
       </c>
       <c r="C37" t="n">
-        <v>38.54</v>
+        <v>18.64</v>
       </c>
       <c r="D37" t="n">
-        <v>9.01</v>
+        <v>19.86</v>
       </c>
       <c r="E37" t="n">
         <v>-1.57</v>
@@ -3035,10 +2795,10 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>37.94</v>
+        <v>17.32</v>
       </c>
       <c r="D38" t="n">
-        <v>9.01</v>
+        <v>19.87</v>
       </c>
       <c r="E38" t="n">
         <v>-1.57</v>
@@ -3055,10 +2815,10 @@
         <v>2</v>
       </c>
       <c r="C39" t="n">
-        <v>37.34</v>
+        <v>15.99</v>
       </c>
       <c r="D39" t="n">
-        <v>9.01</v>
+        <v>19.89</v>
       </c>
       <c r="E39" t="n">
         <v>-1.57</v>
@@ -3075,10 +2835,10 @@
         <v>2</v>
       </c>
       <c r="C40" t="n">
-        <v>36.74</v>
+        <v>14.67</v>
       </c>
       <c r="D40" t="n">
-        <v>9.01</v>
+        <v>20.45</v>
       </c>
       <c r="E40" t="n">
         <v>-1.57</v>
@@ -3095,10 +2855,10 @@
         <v>2</v>
       </c>
       <c r="C41" t="n">
-        <v>36.14</v>
+        <v>13.31</v>
       </c>
       <c r="D41" t="n">
-        <v>9.01</v>
+        <v>20.96</v>
       </c>
       <c r="E41" t="n">
         <v>-1.57</v>
@@ -3115,10 +2875,10 @@
         <v>2</v>
       </c>
       <c r="C42" t="n">
-        <v>35.53</v>
+        <v>11.91</v>
       </c>
       <c r="D42" t="n">
-        <v>9.01</v>
+        <v>21.41</v>
       </c>
       <c r="E42" t="n">
         <v>-1.57</v>
@@ -3132,16 +2892,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="C43" t="n">
-        <v>34.93</v>
+        <v>10.48</v>
       </c>
       <c r="D43" t="n">
-        <v>9.01</v>
+        <v>21.81</v>
       </c>
       <c r="E43" t="n">
-        <v>-1.57</v>
+        <v>-1.6</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
@@ -3152,16 +2912,16 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="C44" t="n">
-        <v>34.33</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>9.01</v>
+        <v>22.16</v>
       </c>
       <c r="E44" t="n">
-        <v>-1.57</v>
+        <v>-1.66</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
@@ -3172,16 +2932,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>2</v>
+        <v>1.41</v>
       </c>
       <c r="C45" t="n">
-        <v>33.73</v>
+        <v>7.6</v>
       </c>
       <c r="D45" t="n">
-        <v>9.01</v>
+        <v>22.48</v>
       </c>
       <c r="E45" t="n">
-        <v>-1.57</v>
+        <v>-1.73</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>
@@ -3192,16 +2952,16 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>2</v>
+        <v>0.95</v>
       </c>
       <c r="C46" t="n">
-        <v>33.13</v>
+        <v>6.17</v>
       </c>
       <c r="D46" t="n">
-        <v>9</v>
+        <v>22.76</v>
       </c>
       <c r="E46" t="n">
-        <v>-1.57</v>
+        <v>-1.82</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
@@ -3212,16 +2972,16 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>2</v>
+        <v>0.34</v>
       </c>
       <c r="C47" t="n">
-        <v>32.53</v>
+        <v>4.79</v>
       </c>
       <c r="D47" t="n">
-        <v>9</v>
+        <v>23.56</v>
       </c>
       <c r="E47" t="n">
-        <v>-1.57</v>
+        <v>-1.92</v>
       </c>
       <c r="F47" t="b">
         <v>0</v>
@@ -3232,16 +2992,16 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>2</v>
+        <v>-0.45</v>
       </c>
       <c r="C48" t="n">
-        <v>31.93</v>
+        <v>3.43</v>
       </c>
       <c r="D48" t="n">
-        <v>9</v>
+        <v>24.28</v>
       </c>
       <c r="E48" t="n">
-        <v>-1.57</v>
+        <v>-2.03</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
@@ -3252,16 +3012,16 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>2</v>
+        <v>-1.42</v>
       </c>
       <c r="C49" t="n">
-        <v>31.33</v>
+        <v>2.13</v>
       </c>
       <c r="D49" t="n">
-        <v>9</v>
+        <v>24.91</v>
       </c>
       <c r="E49" t="n">
-        <v>-1.57</v>
+        <v>-2.15</v>
       </c>
       <c r="F49" t="b">
         <v>0</v>
@@ -3272,16 +3032,16 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>2</v>
+        <v>-2.57</v>
       </c>
       <c r="C50" t="n">
-        <v>30.73</v>
+        <v>0.93</v>
       </c>
       <c r="D50" t="n">
-        <v>9</v>
+        <v>25.48</v>
       </c>
       <c r="E50" t="n">
-        <v>-1.57</v>
+        <v>-2.27</v>
       </c>
       <c r="F50" t="b">
         <v>0</v>
@@ -3292,16 +3052,16 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>2</v>
+        <v>-3.88</v>
       </c>
       <c r="C51" t="n">
-        <v>30.13</v>
+        <v>-0.15</v>
       </c>
       <c r="D51" t="n">
-        <v>9</v>
+        <v>25.98</v>
       </c>
       <c r="E51" t="n">
-        <v>-1.57</v>
+        <v>-2.4</v>
       </c>
       <c r="F51" t="b">
         <v>0</v>
@@ -3312,16 +3072,16 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>2</v>
+        <v>-5.35</v>
       </c>
       <c r="C52" t="n">
-        <v>29.53</v>
+        <v>-1.06</v>
       </c>
       <c r="D52" t="n">
-        <v>9</v>
+        <v>26.43</v>
       </c>
       <c r="E52" t="n">
-        <v>-1.57</v>
+        <v>-2.53</v>
       </c>
       <c r="F52" t="b">
         <v>0</v>
@@ -3332,16 +3092,16 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>2</v>
+        <v>-6.96</v>
       </c>
       <c r="C53" t="n">
-        <v>28.93</v>
+        <v>-1.79</v>
       </c>
       <c r="D53" t="n">
-        <v>9</v>
+        <v>26.82</v>
       </c>
       <c r="E53" t="n">
-        <v>-1.57</v>
+        <v>-2.66</v>
       </c>
       <c r="F53" t="b">
         <v>0</v>
@@ -3352,16 +3112,16 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>2</v>
+        <v>-8.67</v>
       </c>
       <c r="C54" t="n">
-        <v>28.33</v>
+        <v>-2.3</v>
       </c>
       <c r="D54" t="n">
-        <v>9</v>
+        <v>27.18</v>
       </c>
       <c r="E54" t="n">
-        <v>-1.57</v>
+        <v>-2.8</v>
       </c>
       <c r="F54" t="b">
         <v>0</v>
@@ -3372,16 +3132,16 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>2</v>
+        <v>-10.46</v>
       </c>
       <c r="C55" t="n">
-        <v>27.73</v>
+        <v>-2.62</v>
       </c>
       <c r="D55" t="n">
-        <v>9</v>
+        <v>27.49</v>
       </c>
       <c r="E55" t="n">
-        <v>-1.57</v>
+        <v>-2.92</v>
       </c>
       <c r="F55" t="b">
         <v>0</v>
@@ -3392,16 +3152,16 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>2</v>
+        <v>-12.28</v>
       </c>
       <c r="C56" t="n">
-        <v>27.13</v>
+        <v>-2.81</v>
       </c>
       <c r="D56" t="n">
-        <v>9</v>
+        <v>27.77</v>
       </c>
       <c r="E56" t="n">
-        <v>-1.57</v>
+        <v>-3</v>
       </c>
       <c r="F56" t="b">
         <v>0</v>
@@ -3412,16 +3172,16 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>2</v>
+        <v>-14.13</v>
       </c>
       <c r="C57" t="n">
-        <v>26.53</v>
+        <v>-2.91</v>
       </c>
       <c r="D57" t="n">
-        <v>9</v>
+        <v>28.02</v>
       </c>
       <c r="E57" t="n">
-        <v>-1.57</v>
+        <v>-3.07</v>
       </c>
       <c r="F57" t="b">
         <v>0</v>
@@ -3432,16 +3192,16 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>2</v>
+        <v>-15.99</v>
       </c>
       <c r="C58" t="n">
-        <v>25.93</v>
+        <v>-2.94</v>
       </c>
       <c r="D58" t="n">
-        <v>9</v>
+        <v>28.24</v>
       </c>
       <c r="E58" t="n">
-        <v>-1.57</v>
+        <v>-3.11</v>
       </c>
       <c r="F58" t="b">
         <v>0</v>
@@ -3452,16 +3212,16 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>2</v>
+        <v>-17.88</v>
       </c>
       <c r="C59" t="n">
-        <v>25.33</v>
+        <v>-2.93</v>
       </c>
       <c r="D59" t="n">
-        <v>9</v>
+        <v>28.43</v>
       </c>
       <c r="E59" t="n">
-        <v>-1.57</v>
+        <v>-3.14</v>
       </c>
       <c r="F59" t="b">
         <v>0</v>
@@ -3472,16 +3232,16 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>2</v>
+        <v>-19.77</v>
       </c>
       <c r="C60" t="n">
-        <v>24.73</v>
+        <v>-2.89</v>
       </c>
       <c r="D60" t="n">
-        <v>9</v>
+        <v>28.61</v>
       </c>
       <c r="E60" t="n">
-        <v>-1.57</v>
+        <v>-3.16</v>
       </c>
       <c r="F60" t="b">
         <v>0</v>
@@ -3492,16 +3252,16 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>2</v>
+        <v>-21.68</v>
       </c>
       <c r="C61" t="n">
-        <v>24.13</v>
+        <v>-2.83</v>
       </c>
       <c r="D61" t="n">
-        <v>9</v>
+        <v>28.76</v>
       </c>
       <c r="E61" t="n">
-        <v>-1.57</v>
+        <v>-3.17</v>
       </c>
       <c r="F61" t="b">
         <v>0</v>
@@ -3512,16 +3272,16 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>2</v>
+        <v>-23.59</v>
       </c>
       <c r="C62" t="n">
-        <v>23.53</v>
+        <v>-2.76</v>
       </c>
       <c r="D62" t="n">
-        <v>9</v>
+        <v>28.9</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.57</v>
+        <v>-3.18</v>
       </c>
       <c r="F62" t="b">
         <v>0</v>
@@ -3532,16 +3292,16 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>2</v>
+        <v>-25.52</v>
       </c>
       <c r="C63" t="n">
-        <v>22.93</v>
+        <v>-2.68</v>
       </c>
       <c r="D63" t="n">
-        <v>9</v>
+        <v>29.02</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.57</v>
+        <v>-3.18</v>
       </c>
       <c r="F63" t="b">
         <v>0</v>
@@ -3552,16 +3312,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>2</v>
+        <v>-27.45</v>
       </c>
       <c r="C64" t="n">
-        <v>22.33</v>
+        <v>-2.61</v>
       </c>
       <c r="D64" t="n">
-        <v>9</v>
+        <v>29.13</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.57</v>
+        <v>-3.18</v>
       </c>
       <c r="F64" t="b">
         <v>0</v>
@@ -3572,16 +3332,16 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>2</v>
+        <v>-29.39</v>
       </c>
       <c r="C65" t="n">
-        <v>21.73</v>
+        <v>-2.54</v>
       </c>
       <c r="D65" t="n">
-        <v>9</v>
+        <v>29.23</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.57</v>
+        <v>-3.18</v>
       </c>
       <c r="F65" t="b">
         <v>0</v>
@@ -3592,16 +3352,16 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>2</v>
+        <v>-31.34</v>
       </c>
       <c r="C66" t="n">
-        <v>21.13</v>
+        <v>-2.47</v>
       </c>
       <c r="D66" t="n">
-        <v>9</v>
+        <v>29.31</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.57</v>
+        <v>-3.18</v>
       </c>
       <c r="F66" t="b">
         <v>0</v>
@@ -3612,16 +3372,16 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>2</v>
+        <v>-33.29</v>
       </c>
       <c r="C67" t="n">
-        <v>20.53</v>
+        <v>-2.41</v>
       </c>
       <c r="D67" t="n">
-        <v>9</v>
+        <v>29.39</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.57</v>
+        <v>-3.17</v>
       </c>
       <c r="F67" t="b">
         <v>0</v>
@@ -3632,16 +3392,16 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>2</v>
+        <v>-35.25</v>
       </c>
       <c r="C68" t="n">
-        <v>19.93</v>
+        <v>-2.35</v>
       </c>
       <c r="D68" t="n">
-        <v>9</v>
+        <v>29.46</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.57</v>
+        <v>-3.17</v>
       </c>
       <c r="F68" t="b">
         <v>0</v>
@@ -3652,16 +3412,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>2</v>
+        <v>-37.22</v>
       </c>
       <c r="C69" t="n">
-        <v>19.33</v>
+        <v>-2.3</v>
       </c>
       <c r="D69" t="n">
-        <v>9</v>
+        <v>29.52</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.57</v>
+        <v>-3.17</v>
       </c>
       <c r="F69" t="b">
         <v>0</v>
@@ -3672,16 +3432,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>2</v>
+        <v>-39.18</v>
       </c>
       <c r="C70" t="n">
-        <v>18.73</v>
+        <v>-2.26</v>
       </c>
       <c r="D70" t="n">
-        <v>9</v>
+        <v>29.57</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.57</v>
+        <v>-3.16</v>
       </c>
       <c r="F70" t="b">
         <v>0</v>
@@ -3692,16 +3452,16 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>2</v>
+        <v>-41.15</v>
       </c>
       <c r="C71" t="n">
-        <v>18.13</v>
+        <v>-2.22</v>
       </c>
       <c r="D71" t="n">
-        <v>9</v>
+        <v>29.62</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.57</v>
+        <v>-3.16</v>
       </c>
       <c r="F71" t="b">
         <v>0</v>
@@ -3712,16 +3472,16 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>2</v>
+        <v>-43.13</v>
       </c>
       <c r="C72" t="n">
-        <v>17.53</v>
+        <v>-2.19</v>
       </c>
       <c r="D72" t="n">
-        <v>9</v>
+        <v>29.66</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.57</v>
+        <v>-3.16</v>
       </c>
       <c r="F72" t="b">
         <v>0</v>
@@ -3732,16 +3492,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>2</v>
+        <v>-45.11</v>
       </c>
       <c r="C73" t="n">
-        <v>16.93</v>
+        <v>-2.16</v>
       </c>
       <c r="D73" t="n">
-        <v>9</v>
+        <v>29.7</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.57</v>
+        <v>-3.16</v>
       </c>
       <c r="F73" t="b">
         <v>0</v>
@@ -3752,16 +3512,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>2</v>
+        <v>-47.09</v>
       </c>
       <c r="C74" t="n">
-        <v>16.33</v>
+        <v>-2.13</v>
       </c>
       <c r="D74" t="n">
-        <v>9</v>
+        <v>29.73</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.57</v>
+        <v>-3.15</v>
       </c>
       <c r="F74" t="b">
         <v>0</v>
@@ -3772,16 +3532,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>2</v>
+        <v>-49.07</v>
       </c>
       <c r="C75" t="n">
-        <v>15.73</v>
+        <v>-2.11</v>
       </c>
       <c r="D75" t="n">
-        <v>9</v>
+        <v>29.76</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.57</v>
+        <v>-3.15</v>
       </c>
       <c r="F75" t="b">
         <v>0</v>
@@ -3792,16 +3552,16 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>2</v>
+        <v>-51.05</v>
       </c>
       <c r="C76" t="n">
-        <v>15.13</v>
+        <v>-2.09</v>
       </c>
       <c r="D76" t="n">
-        <v>9</v>
+        <v>29.79</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.57</v>
+        <v>-3.15</v>
       </c>
       <c r="F76" t="b">
         <v>0</v>
@@ -3812,16 +3572,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>2</v>
+        <v>-53.04</v>
       </c>
       <c r="C77" t="n">
-        <v>14.53</v>
+        <v>-2.08</v>
       </c>
       <c r="D77" t="n">
-        <v>9</v>
+        <v>29.81</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.57</v>
+        <v>-3.15</v>
       </c>
       <c r="F77" t="b">
         <v>0</v>
@@ -3832,16 +3592,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>2</v>
+        <v>-55.03</v>
       </c>
       <c r="C78" t="n">
-        <v>13.93</v>
+        <v>-2.07</v>
       </c>
       <c r="D78" t="n">
-        <v>9</v>
+        <v>29.83</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.57</v>
+        <v>-3.15</v>
       </c>
       <c r="F78" t="b">
         <v>0</v>
@@ -3852,259 +3612,19 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>2</v>
+        <v>-57.01</v>
       </c>
       <c r="C79" t="n">
-        <v>13.33</v>
+        <v>-2.05</v>
       </c>
       <c r="D79" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.57</v>
+        <v>-3.15</v>
       </c>
       <c r="F79" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="C80" t="n">
-        <v>12.73</v>
-      </c>
-      <c r="D80" t="n">
-        <v>9</v>
-      </c>
-      <c r="E80" t="n">
-        <v>-1.55</v>
-      </c>
-      <c r="F80" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="C81" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="D81" t="n">
-        <v>9</v>
-      </c>
-      <c r="E81" t="n">
-        <v>-1.55</v>
-      </c>
-      <c r="F81" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="C82" t="n">
-        <v>11.53</v>
-      </c>
-      <c r="D82" t="n">
-        <v>9</v>
-      </c>
-      <c r="E82" t="n">
-        <v>-1.56</v>
-      </c>
-      <c r="F82" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="C83" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="D83" t="n">
-        <v>9</v>
-      </c>
-      <c r="E83" t="n">
-        <v>-1.58</v>
-      </c>
-      <c r="F83" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="C84" t="n">
-        <v>10.34</v>
-      </c>
-      <c r="D84" t="n">
-        <v>9</v>
-      </c>
-      <c r="E84" t="n">
-        <v>-1.6</v>
-      </c>
-      <c r="F84" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="C85" t="n">
-        <v>9.74</v>
-      </c>
-      <c r="D85" t="n">
-        <v>9</v>
-      </c>
-      <c r="E85" t="n">
-        <v>-1.63</v>
-      </c>
-      <c r="F85" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="C86" t="n">
-        <v>9.16</v>
-      </c>
-      <c r="D86" t="n">
-        <v>9</v>
-      </c>
-      <c r="E86" t="n">
-        <v>-1.66</v>
-      </c>
-      <c r="F86" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="C87" t="n">
-        <v>8.57</v>
-      </c>
-      <c r="D87" t="n">
-        <v>9</v>
-      </c>
-      <c r="E87" t="n">
-        <v>-1.7</v>
-      </c>
-      <c r="F87" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="C88" t="n">
-        <v>7.99</v>
-      </c>
-      <c r="D88" t="n">
-        <v>9</v>
-      </c>
-      <c r="E88" t="n">
-        <v>-1.73</v>
-      </c>
-      <c r="F88" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="C89" t="n">
-        <v>7.42</v>
-      </c>
-      <c r="D89" t="n">
-        <v>9</v>
-      </c>
-      <c r="E89" t="n">
-        <v>-1.77</v>
-      </c>
-      <c r="F89" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="C90" t="n">
-        <v>6.86</v>
-      </c>
-      <c r="D90" t="n">
-        <v>9</v>
-      </c>
-      <c r="E90" t="n">
-        <v>-1.81</v>
-      </c>
-      <c r="F90" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="C91" t="n">
-        <v>6.31</v>
-      </c>
-      <c r="D91" t="n">
-        <v>9</v>
-      </c>
-      <c r="E91" t="n">
-        <v>-1.85</v>
-      </c>
-      <c r="F91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4118,7 +3638,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F91"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4169,7 +3689,7 @@
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>9.890000000000001</v>
+        <v>11.11</v>
       </c>
       <c r="E2" t="n">
         <v>-0</v>
@@ -4183,13 +3703,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-54.61</v>
+        <v>-54.53</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>9.789999999999999</v>
+        <v>12.1</v>
       </c>
       <c r="E3" t="n">
         <v>-0</v>
@@ -4203,13 +3723,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-53.96</v>
+        <v>-53.72</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>9.699999999999999</v>
+        <v>12.98</v>
       </c>
       <c r="E4" t="n">
         <v>-0</v>
@@ -4223,13 +3743,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-53.31</v>
+        <v>-52.86</v>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>9.619999999999999</v>
+        <v>13.76</v>
       </c>
       <c r="E5" t="n">
         <v>-0</v>
@@ -4243,13 +3763,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-52.67</v>
+        <v>-51.94</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>9.550000000000001</v>
+        <v>14.45</v>
       </c>
       <c r="E6" t="n">
         <v>-0</v>
@@ -4263,13 +3783,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-52.03</v>
+        <v>-50.97</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>9.49</v>
+        <v>15.07</v>
       </c>
       <c r="E7" t="n">
         <v>-0</v>
@@ -4283,13 +3803,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-51.4</v>
+        <v>-49.97</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>9.44</v>
+        <v>15.62</v>
       </c>
       <c r="E8" t="n">
         <v>-0</v>
@@ -4303,13 +3823,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-50.77</v>
+        <v>-48.93</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>9.390000000000001</v>
+        <v>16.1</v>
       </c>
       <c r="E9" t="n">
         <v>-0</v>
@@ -4323,13 +3843,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-50.14</v>
+        <v>-47.86</v>
       </c>
       <c r="C10" t="n">
         <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>9.35</v>
+        <v>16.54</v>
       </c>
       <c r="E10" t="n">
         <v>-0</v>
@@ -4343,13 +3863,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-49.52</v>
+        <v>-46.75</v>
       </c>
       <c r="C11" t="n">
         <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>9.31</v>
+        <v>16.92</v>
       </c>
       <c r="E11" t="n">
         <v>-0</v>
@@ -4363,13 +3883,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-48.9</v>
+        <v>-45.63</v>
       </c>
       <c r="C12" t="n">
         <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>9.27</v>
+        <v>17.26</v>
       </c>
       <c r="E12" t="n">
         <v>-0</v>
@@ -4383,13 +3903,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-48.28</v>
+        <v>-44.47</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>9.24</v>
+        <v>17.57</v>
       </c>
       <c r="E13" t="n">
         <v>-0</v>
@@ -4403,13 +3923,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-47.66</v>
+        <v>-43.3</v>
       </c>
       <c r="C14" t="n">
         <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>9.220000000000001</v>
+        <v>17.84</v>
       </c>
       <c r="E14" t="n">
         <v>-0</v>
@@ -4423,13 +3943,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-47.05</v>
+        <v>-42.11</v>
       </c>
       <c r="C15" t="n">
         <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>9.19</v>
+        <v>18.08</v>
       </c>
       <c r="E15" t="n">
         <v>-0</v>
@@ -4443,13 +3963,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-46.44</v>
+        <v>-40.91</v>
       </c>
       <c r="C16" t="n">
         <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>9.17</v>
+        <v>18.29</v>
       </c>
       <c r="E16" t="n">
         <v>-0</v>
@@ -4463,13 +3983,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-45.83</v>
+        <v>-39.69</v>
       </c>
       <c r="C17" t="n">
         <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>9.15</v>
+        <v>18.48</v>
       </c>
       <c r="E17" t="n">
         <v>-0</v>
@@ -4483,13 +4003,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-45.22</v>
+        <v>-38.46</v>
       </c>
       <c r="C18" t="n">
         <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>9.140000000000001</v>
+        <v>18.65</v>
       </c>
       <c r="E18" t="n">
         <v>-0</v>
@@ -4503,13 +4023,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-44.61</v>
+        <v>-37.21</v>
       </c>
       <c r="C19" t="n">
         <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>9.119999999999999</v>
+        <v>18.8</v>
       </c>
       <c r="E19" t="n">
         <v>-0</v>
@@ -4523,13 +4043,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-44</v>
+        <v>-35.96</v>
       </c>
       <c r="C20" t="n">
         <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>9.109999999999999</v>
+        <v>18.93</v>
       </c>
       <c r="E20" t="n">
         <v>-0</v>
@@ -4543,13 +4063,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-43.39</v>
+        <v>-34.7</v>
       </c>
       <c r="C21" t="n">
         <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>9.09</v>
+        <v>19.05</v>
       </c>
       <c r="E21" t="n">
         <v>-0</v>
@@ -4563,13 +4083,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-42.79</v>
+        <v>-33.43</v>
       </c>
       <c r="C22" t="n">
         <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>9.08</v>
+        <v>19.16</v>
       </c>
       <c r="E22" t="n">
         <v>-0</v>
@@ -4583,13 +4103,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-42.18</v>
+        <v>-32.15</v>
       </c>
       <c r="C23" t="n">
         <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>9.07</v>
+        <v>19.25</v>
       </c>
       <c r="E23" t="n">
         <v>-0</v>
@@ -4603,13 +4123,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-41.57</v>
+        <v>-30.87</v>
       </c>
       <c r="C24" t="n">
         <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>9.07</v>
+        <v>19.33</v>
       </c>
       <c r="E24" t="n">
         <v>-0</v>
@@ -4623,13 +4143,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-40.97</v>
+        <v>-29.58</v>
       </c>
       <c r="C25" t="n">
         <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>9.06</v>
+        <v>19.41</v>
       </c>
       <c r="E25" t="n">
         <v>-0</v>
@@ -4643,13 +4163,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-40.37</v>
+        <v>-28.29</v>
       </c>
       <c r="C26" t="n">
         <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>9.050000000000001</v>
+        <v>19.47</v>
       </c>
       <c r="E26" t="n">
         <v>-0</v>
@@ -4663,13 +4183,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-39.76</v>
+        <v>-26.99</v>
       </c>
       <c r="C27" t="n">
         <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>9.050000000000001</v>
+        <v>19.53</v>
       </c>
       <c r="E27" t="n">
         <v>-0</v>
@@ -4683,13 +4203,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-39.16</v>
+        <v>-25.68</v>
       </c>
       <c r="C28" t="n">
         <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>9.039999999999999</v>
+        <v>19.58</v>
       </c>
       <c r="E28" t="n">
         <v>-0</v>
@@ -4703,13 +4223,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-38.56</v>
+        <v>-24.38</v>
       </c>
       <c r="C29" t="n">
         <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>9.039999999999999</v>
+        <v>19.63</v>
       </c>
       <c r="E29" t="n">
         <v>-0</v>
@@ -4723,13 +4243,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-37.95</v>
+        <v>-23.07</v>
       </c>
       <c r="C30" t="n">
         <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>9.029999999999999</v>
+        <v>19.67</v>
       </c>
       <c r="E30" t="n">
         <v>-0</v>
@@ -4743,13 +4263,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-37.35</v>
+        <v>-21.76</v>
       </c>
       <c r="C31" t="n">
         <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>9.029999999999999</v>
+        <v>19.71</v>
       </c>
       <c r="E31" t="n">
         <v>-0</v>
@@ -4763,13 +4283,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-36.75</v>
+        <v>-20.45</v>
       </c>
       <c r="C32" t="n">
         <v>2</v>
       </c>
       <c r="D32" t="n">
-        <v>9.029999999999999</v>
+        <v>19.74</v>
       </c>
       <c r="E32" t="n">
         <v>-0</v>
@@ -4783,13 +4303,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-36.15</v>
+        <v>-19.13</v>
       </c>
       <c r="C33" t="n">
         <v>2</v>
       </c>
       <c r="D33" t="n">
-        <v>9.02</v>
+        <v>20.32</v>
       </c>
       <c r="E33" t="n">
         <v>-0</v>
@@ -4803,13 +4323,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-35.55</v>
+        <v>-17.77</v>
       </c>
       <c r="C34" t="n">
         <v>2</v>
       </c>
       <c r="D34" t="n">
-        <v>9.02</v>
+        <v>20.84</v>
       </c>
       <c r="E34" t="n">
         <v>-0</v>
@@ -4823,13 +4343,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-34.95</v>
+        <v>-16.38</v>
       </c>
       <c r="C35" t="n">
         <v>2</v>
       </c>
       <c r="D35" t="n">
-        <v>9.02</v>
+        <v>21.31</v>
       </c>
       <c r="E35" t="n">
         <v>-0</v>
@@ -4843,13 +4363,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-34.34</v>
+        <v>-14.96</v>
       </c>
       <c r="C36" t="n">
         <v>2</v>
       </c>
       <c r="D36" t="n">
-        <v>9.02</v>
+        <v>21.72</v>
       </c>
       <c r="E36" t="n">
         <v>-0</v>
@@ -4863,13 +4383,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-33.74</v>
+        <v>-13.52</v>
       </c>
       <c r="C37" t="n">
         <v>2</v>
       </c>
       <c r="D37" t="n">
-        <v>9.01</v>
+        <v>22.08</v>
       </c>
       <c r="E37" t="n">
         <v>-0</v>
@@ -4883,13 +4403,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-33.14</v>
+        <v>-12.04</v>
       </c>
       <c r="C38" t="n">
         <v>2</v>
       </c>
       <c r="D38" t="n">
-        <v>9.01</v>
+        <v>22.41</v>
       </c>
       <c r="E38" t="n">
         <v>-0</v>
@@ -4903,16 +4423,16 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-32.54</v>
+        <v>-10.55</v>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="D39" t="n">
-        <v>9.01</v>
+        <v>22.69</v>
       </c>
       <c r="E39" t="n">
-        <v>-0</v>
+        <v>-0.03</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
@@ -4923,16 +4443,16 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-31.94</v>
+        <v>-9.050000000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="D40" t="n">
-        <v>9.01</v>
+        <v>23.51</v>
       </c>
       <c r="E40" t="n">
-        <v>-0</v>
+        <v>-0.09</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
@@ -4943,16 +4463,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-31.34</v>
+        <v>-7.52</v>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="D41" t="n">
-        <v>9.01</v>
+        <v>24.23</v>
       </c>
       <c r="E41" t="n">
-        <v>-0</v>
+        <v>-0.17</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
@@ -4963,16 +4483,16 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-30.74</v>
+        <v>-5.98</v>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="D42" t="n">
-        <v>9.01</v>
+        <v>24.87</v>
       </c>
       <c r="E42" t="n">
-        <v>-0</v>
+        <v>-0.26</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>
@@ -4983,16 +4503,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-30.14</v>
+        <v>-4.47</v>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>0.21</v>
       </c>
       <c r="D43" t="n">
-        <v>9.01</v>
+        <v>25.44</v>
       </c>
       <c r="E43" t="n">
-        <v>-0</v>
+        <v>-0.37</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
@@ -5003,16 +4523,16 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-29.54</v>
+        <v>-3.02</v>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>-0.66</v>
       </c>
       <c r="D44" t="n">
-        <v>9.01</v>
+        <v>25.95</v>
       </c>
       <c r="E44" t="n">
-        <v>-0</v>
+        <v>-0.49</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
@@ -5023,16 +4543,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-28.94</v>
+        <v>-1.66</v>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>-1.73</v>
       </c>
       <c r="D45" t="n">
-        <v>9.01</v>
+        <v>26.4</v>
       </c>
       <c r="E45" t="n">
-        <v>-0</v>
+        <v>-0.61</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>
@@ -5043,16 +4563,16 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-28.34</v>
+        <v>-0.43</v>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>-2.99</v>
       </c>
       <c r="D46" t="n">
-        <v>9</v>
+        <v>26.8</v>
       </c>
       <c r="E46" t="n">
-        <v>-0</v>
+        <v>-0.74</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
@@ -5063,16 +4583,16 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-27.74</v>
+        <v>0.63</v>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>-4.43</v>
       </c>
       <c r="D47" t="n">
-        <v>9</v>
+        <v>27.15</v>
       </c>
       <c r="E47" t="n">
-        <v>-0</v>
+        <v>-0.88</v>
       </c>
       <c r="F47" t="b">
         <v>0</v>
@@ -5083,16 +4603,16 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>-27.14</v>
+        <v>1.51</v>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>-6.01</v>
       </c>
       <c r="D48" t="n">
-        <v>9</v>
+        <v>27.47</v>
       </c>
       <c r="E48" t="n">
-        <v>-0</v>
+        <v>-1.01</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
@@ -5103,16 +4623,16 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-26.54</v>
+        <v>2.16</v>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>-7.72</v>
       </c>
       <c r="D49" t="n">
-        <v>9</v>
+        <v>27.75</v>
       </c>
       <c r="E49" t="n">
-        <v>-0</v>
+        <v>-1.15</v>
       </c>
       <c r="F49" t="b">
         <v>0</v>
@@ -5123,16 +4643,16 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>-25.94</v>
+        <v>2.58</v>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>-9.52</v>
       </c>
       <c r="D50" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E50" t="n">
-        <v>-0</v>
+        <v>-1.29</v>
       </c>
       <c r="F50" t="b">
         <v>0</v>
@@ -5143,16 +4663,16 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-25.34</v>
+        <v>2.84</v>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>-11.37</v>
       </c>
       <c r="D51" t="n">
-        <v>9</v>
+        <v>28.22</v>
       </c>
       <c r="E51" t="n">
-        <v>-0</v>
+        <v>-1.4</v>
       </c>
       <c r="F51" t="b">
         <v>0</v>
@@ -5163,16 +4683,16 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>-24.74</v>
+        <v>2.98</v>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>-13.25</v>
       </c>
       <c r="D52" t="n">
-        <v>9</v>
+        <v>28.42</v>
       </c>
       <c r="E52" t="n">
-        <v>-0</v>
+        <v>-1.47</v>
       </c>
       <c r="F52" t="b">
         <v>0</v>
@@ -5183,16 +4703,16 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>-24.14</v>
+        <v>3.04</v>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>-15.14</v>
       </c>
       <c r="D53" t="n">
-        <v>9</v>
+        <v>28.6</v>
       </c>
       <c r="E53" t="n">
-        <v>-0</v>
+        <v>-1.52</v>
       </c>
       <c r="F53" t="b">
         <v>0</v>
@@ -5203,16 +4723,16 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>-23.54</v>
+        <v>3.04</v>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>-17.05</v>
       </c>
       <c r="D54" t="n">
-        <v>9</v>
+        <v>28.75</v>
       </c>
       <c r="E54" t="n">
-        <v>-0</v>
+        <v>-1.56</v>
       </c>
       <c r="F54" t="b">
         <v>0</v>
@@ -5223,16 +4743,16 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>-22.94</v>
+        <v>3</v>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>-18.96</v>
       </c>
       <c r="D55" t="n">
-        <v>9</v>
+        <v>28.89</v>
       </c>
       <c r="E55" t="n">
-        <v>-0</v>
+        <v>-1.58</v>
       </c>
       <c r="F55" t="b">
         <v>0</v>
@@ -5243,16 +4763,16 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>-22.34</v>
+        <v>2.94</v>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>-20.89</v>
       </c>
       <c r="D56" t="n">
-        <v>9</v>
+        <v>29.01</v>
       </c>
       <c r="E56" t="n">
-        <v>-0</v>
+        <v>-1.6</v>
       </c>
       <c r="F56" t="b">
         <v>0</v>
@@ -5263,16 +4783,16 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>-21.74</v>
+        <v>2.86</v>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>-22.82</v>
       </c>
       <c r="D57" t="n">
-        <v>9</v>
+        <v>29.12</v>
       </c>
       <c r="E57" t="n">
-        <v>-0</v>
+        <v>-1.61</v>
       </c>
       <c r="F57" t="b">
         <v>0</v>
@@ -5283,16 +4803,16 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>-21.14</v>
+        <v>2.78</v>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>-24.76</v>
       </c>
       <c r="D58" t="n">
-        <v>9</v>
+        <v>29.22</v>
       </c>
       <c r="E58" t="n">
-        <v>-0</v>
+        <v>-1.61</v>
       </c>
       <c r="F58" t="b">
         <v>0</v>
@@ -5303,16 +4823,16 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>-20.54</v>
+        <v>2.7</v>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>-26.71</v>
       </c>
       <c r="D59" t="n">
-        <v>9</v>
+        <v>29.31</v>
       </c>
       <c r="E59" t="n">
-        <v>-0</v>
+        <v>-1.61</v>
       </c>
       <c r="F59" t="b">
         <v>0</v>
@@ -5323,16 +4843,16 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>-19.94</v>
+        <v>2.62</v>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>-28.66</v>
       </c>
       <c r="D60" t="n">
-        <v>9</v>
+        <v>29.38</v>
       </c>
       <c r="E60" t="n">
-        <v>-0</v>
+        <v>-1.61</v>
       </c>
       <c r="F60" t="b">
         <v>0</v>
@@ -5343,16 +4863,16 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>-19.33</v>
+        <v>2.54</v>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>-30.62</v>
       </c>
       <c r="D61" t="n">
-        <v>9</v>
+        <v>29.45</v>
       </c>
       <c r="E61" t="n">
-        <v>-0</v>
+        <v>-1.61</v>
       </c>
       <c r="F61" t="b">
         <v>0</v>
@@ -5363,16 +4883,16 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>-18.73</v>
+        <v>2.47</v>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>-32.58</v>
       </c>
       <c r="D62" t="n">
-        <v>9</v>
+        <v>29.51</v>
       </c>
       <c r="E62" t="n">
-        <v>-0</v>
+        <v>-1.61</v>
       </c>
       <c r="F62" t="b">
         <v>0</v>
@@ -5383,16 +4903,16 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>-18.13</v>
+        <v>2.41</v>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>-34.55</v>
       </c>
       <c r="D63" t="n">
-        <v>9</v>
+        <v>29.57</v>
       </c>
       <c r="E63" t="n">
-        <v>-0</v>
+        <v>-1.6</v>
       </c>
       <c r="F63" t="b">
         <v>0</v>
@@ -5403,16 +4923,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-17.53</v>
+        <v>2.35</v>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>-36.52</v>
       </c>
       <c r="D64" t="n">
-        <v>9</v>
+        <v>29.62</v>
       </c>
       <c r="E64" t="n">
-        <v>-0</v>
+        <v>-1.6</v>
       </c>
       <c r="F64" t="b">
         <v>0</v>
@@ -5423,16 +4943,16 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>-16.93</v>
+        <v>2.3</v>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>-38.49</v>
       </c>
       <c r="D65" t="n">
-        <v>9</v>
+        <v>29.66</v>
       </c>
       <c r="E65" t="n">
-        <v>-0</v>
+        <v>-1.6</v>
       </c>
       <c r="F65" t="b">
         <v>0</v>
@@ -5443,16 +4963,16 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-16.33</v>
+        <v>2.26</v>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>-40.47</v>
       </c>
       <c r="D66" t="n">
-        <v>9</v>
+        <v>29.7</v>
       </c>
       <c r="E66" t="n">
-        <v>-0</v>
+        <v>-1.59</v>
       </c>
       <c r="F66" t="b">
         <v>0</v>
@@ -5463,16 +4983,16 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-15.73</v>
+        <v>2.22</v>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>-42.45</v>
       </c>
       <c r="D67" t="n">
-        <v>9</v>
+        <v>29.73</v>
       </c>
       <c r="E67" t="n">
-        <v>-0</v>
+        <v>-1.59</v>
       </c>
       <c r="F67" t="b">
         <v>0</v>
@@ -5483,16 +5003,16 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-15.13</v>
+        <v>2.18</v>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>-44.43</v>
       </c>
       <c r="D68" t="n">
-        <v>9</v>
+        <v>29.76</v>
       </c>
       <c r="E68" t="n">
-        <v>-0</v>
+        <v>-1.59</v>
       </c>
       <c r="F68" t="b">
         <v>0</v>
@@ -5503,16 +5023,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-14.53</v>
+        <v>2.16</v>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>-46.41</v>
       </c>
       <c r="D69" t="n">
-        <v>9</v>
+        <v>29.79</v>
       </c>
       <c r="E69" t="n">
-        <v>-0</v>
+        <v>-1.59</v>
       </c>
       <c r="F69" t="b">
         <v>0</v>
@@ -5523,16 +5043,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-13.93</v>
+        <v>2.13</v>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>-48.4</v>
       </c>
       <c r="D70" t="n">
-        <v>9</v>
+        <v>29.81</v>
       </c>
       <c r="E70" t="n">
-        <v>-0</v>
+        <v>-1.58</v>
       </c>
       <c r="F70" t="b">
         <v>0</v>
@@ -5543,16 +5063,16 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-13.33</v>
+        <v>2.11</v>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>-50.39</v>
       </c>
       <c r="D71" t="n">
-        <v>9</v>
+        <v>29.83</v>
       </c>
       <c r="E71" t="n">
-        <v>-0</v>
+        <v>-1.58</v>
       </c>
       <c r="F71" t="b">
         <v>0</v>
@@ -5563,16 +5083,16 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-12.74</v>
+        <v>2.09</v>
       </c>
       <c r="C72" t="n">
-        <v>2.06</v>
+        <v>-52.37</v>
       </c>
       <c r="D72" t="n">
-        <v>9</v>
+        <v>29.85</v>
       </c>
       <c r="E72" t="n">
-        <v>0.02</v>
+        <v>-1.58</v>
       </c>
       <c r="F72" t="b">
         <v>0</v>
@@ -5583,16 +5103,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-12.14</v>
+        <v>2.08</v>
       </c>
       <c r="C73" t="n">
-        <v>2.08</v>
+        <v>-54.36</v>
       </c>
       <c r="D73" t="n">
-        <v>9</v>
+        <v>29.87</v>
       </c>
       <c r="E73" t="n">
-        <v>0.03</v>
+        <v>-1.58</v>
       </c>
       <c r="F73" t="b">
         <v>0</v>
@@ -5603,19 +5123,19 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-11.54</v>
+        <v>2.06</v>
       </c>
       <c r="C74" t="n">
-        <v>2.07</v>
+        <v>-56.36</v>
       </c>
       <c r="D74" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>0.02</v>
+        <v>-1.58</v>
       </c>
       <c r="F74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -5623,19 +5143,19 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-10.94</v>
+        <v>2.06</v>
       </c>
       <c r="C75" t="n">
-        <v>2.03</v>
+        <v>-56.36</v>
       </c>
       <c r="D75" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>-0</v>
+        <v>-1.58</v>
       </c>
       <c r="F75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -5643,19 +5163,19 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-10.34</v>
+        <v>2.06</v>
       </c>
       <c r="C76" t="n">
-        <v>1.96</v>
+        <v>-56.36</v>
       </c>
       <c r="D76" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.03</v>
+        <v>-1.58</v>
       </c>
       <c r="F76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -5663,19 +5183,19 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-9.75</v>
+        <v>2.06</v>
       </c>
       <c r="C77" t="n">
-        <v>1.87</v>
+        <v>-56.36</v>
       </c>
       <c r="D77" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.06</v>
+        <v>-1.58</v>
       </c>
       <c r="F77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -5683,19 +5203,19 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-9.16</v>
+        <v>2.06</v>
       </c>
       <c r="C78" t="n">
-        <v>1.76</v>
+        <v>-56.36</v>
       </c>
       <c r="D78" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.09</v>
+        <v>-1.58</v>
       </c>
       <c r="F78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -5703,259 +5223,19 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-8.58</v>
+        <v>2.06</v>
       </c>
       <c r="C79" t="n">
-        <v>1.62</v>
+        <v>-56.36</v>
       </c>
       <c r="D79" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.12</v>
+        <v>-1.58</v>
       </c>
       <c r="F79" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>-8</v>
-      </c>
-      <c r="C80" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="D80" t="n">
-        <v>9</v>
-      </c>
-      <c r="E80" t="n">
-        <v>-0.16</v>
-      </c>
-      <c r="F80" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>-7.43</v>
-      </c>
-      <c r="C81" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="D81" t="n">
-        <v>9</v>
-      </c>
-      <c r="E81" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="F81" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>-6.87</v>
-      </c>
-      <c r="C82" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="D82" t="n">
-        <v>9</v>
-      </c>
-      <c r="E82" t="n">
-        <v>-0.24</v>
-      </c>
-      <c r="F82" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>-6.31</v>
-      </c>
-      <c r="C83" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="D83" t="n">
-        <v>9</v>
-      </c>
-      <c r="E83" t="n">
-        <v>-0.27</v>
-      </c>
-      <c r="F83" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>-5.77</v>
-      </c>
-      <c r="C84" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="D84" t="n">
-        <v>9</v>
-      </c>
-      <c r="E84" t="n">
-        <v>-0.31</v>
-      </c>
-      <c r="F84" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>-5.24</v>
-      </c>
-      <c r="C85" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="D85" t="n">
-        <v>9</v>
-      </c>
-      <c r="E85" t="n">
-        <v>-0.36</v>
-      </c>
-      <c r="F85" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>-4.72</v>
-      </c>
-      <c r="C86" t="n">
-        <v>-0.01</v>
-      </c>
-      <c r="D86" t="n">
-        <v>9</v>
-      </c>
-      <c r="E86" t="n">
-        <v>-0.4</v>
-      </c>
-      <c r="F86" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>-4.22</v>
-      </c>
-      <c r="C87" t="n">
-        <v>-0.34</v>
-      </c>
-      <c r="D87" t="n">
-        <v>9</v>
-      </c>
-      <c r="E87" t="n">
-        <v>-0.44</v>
-      </c>
-      <c r="F87" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>-3.73</v>
-      </c>
-      <c r="C88" t="n">
-        <v>-0.6899999999999999</v>
-      </c>
-      <c r="D88" t="n">
-        <v>9</v>
-      </c>
-      <c r="E88" t="n">
-        <v>-0.48</v>
-      </c>
-      <c r="F88" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>-3.26</v>
-      </c>
-      <c r="C89" t="n">
-        <v>-1.06</v>
-      </c>
-      <c r="D89" t="n">
-        <v>9</v>
-      </c>
-      <c r="E89" t="n">
-        <v>-0.53</v>
-      </c>
-      <c r="F89" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>-2.8</v>
-      </c>
-      <c r="C90" t="n">
-        <v>-1.45</v>
-      </c>
-      <c r="D90" t="n">
-        <v>9</v>
-      </c>
-      <c r="E90" t="n">
-        <v>-0.57</v>
-      </c>
-      <c r="F90" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>-2.37</v>
-      </c>
-      <c r="C91" t="n">
-        <v>-1.86</v>
-      </c>
-      <c r="D91" t="n">
-        <v>9</v>
-      </c>
-      <c r="E91" t="n">
-        <v>-0.61</v>
-      </c>
-      <c r="F91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5969,7 +5249,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F91"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6020,7 +5300,7 @@
         <v>-53.86</v>
       </c>
       <c r="D2" t="n">
-        <v>9.890000000000001</v>
+        <v>11.67</v>
       </c>
       <c r="E2" t="n">
         <v>1.57</v>
@@ -6037,10 +5317,10 @@
         <v>-2</v>
       </c>
       <c r="C3" t="n">
-        <v>-53.2</v>
+        <v>-53.08</v>
       </c>
       <c r="D3" t="n">
-        <v>9.789999999999999</v>
+        <v>13.15</v>
       </c>
       <c r="E3" t="n">
         <v>1.57</v>
@@ -6057,10 +5337,10 @@
         <v>-2</v>
       </c>
       <c r="C4" t="n">
-        <v>-52.55</v>
+        <v>-52.21</v>
       </c>
       <c r="D4" t="n">
-        <v>9.699999999999999</v>
+        <v>14.47</v>
       </c>
       <c r="E4" t="n">
         <v>1.57</v>
@@ -6077,10 +5357,10 @@
         <v>-2</v>
       </c>
       <c r="C5" t="n">
-        <v>-51.9</v>
+        <v>-51.24</v>
       </c>
       <c r="D5" t="n">
-        <v>9.619999999999999</v>
+        <v>15.64</v>
       </c>
       <c r="E5" t="n">
         <v>1.57</v>
@@ -6097,10 +5377,10 @@
         <v>-2</v>
       </c>
       <c r="C6" t="n">
-        <v>-51.26</v>
+        <v>-50.2</v>
       </c>
       <c r="D6" t="n">
-        <v>9.550000000000001</v>
+        <v>16.68</v>
       </c>
       <c r="E6" t="n">
         <v>1.57</v>
@@ -6117,10 +5397,10 @@
         <v>-2</v>
       </c>
       <c r="C7" t="n">
-        <v>-50.62</v>
+        <v>-49.09</v>
       </c>
       <c r="D7" t="n">
-        <v>9.49</v>
+        <v>17.6</v>
       </c>
       <c r="E7" t="n">
         <v>1.57</v>
@@ -6137,10 +5417,10 @@
         <v>-2</v>
       </c>
       <c r="C8" t="n">
-        <v>-49.99</v>
+        <v>-47.92</v>
       </c>
       <c r="D8" t="n">
-        <v>9.44</v>
+        <v>18.42</v>
       </c>
       <c r="E8" t="n">
         <v>1.57</v>
@@ -6157,10 +5437,10 @@
         <v>-2</v>
       </c>
       <c r="C9" t="n">
-        <v>-49.36</v>
+        <v>-46.69</v>
       </c>
       <c r="D9" t="n">
-        <v>9.390000000000001</v>
+        <v>19.15</v>
       </c>
       <c r="E9" t="n">
         <v>1.57</v>
@@ -6177,10 +5457,10 @@
         <v>-2</v>
       </c>
       <c r="C10" t="n">
-        <v>-48.74</v>
+        <v>-45.41</v>
       </c>
       <c r="D10" t="n">
-        <v>9.35</v>
+        <v>19.8</v>
       </c>
       <c r="E10" t="n">
         <v>1.57</v>
@@ -6197,10 +5477,10 @@
         <v>-2</v>
       </c>
       <c r="C11" t="n">
-        <v>-48.11</v>
+        <v>-44.09</v>
       </c>
       <c r="D11" t="n">
-        <v>9.31</v>
+        <v>20.38</v>
       </c>
       <c r="E11" t="n">
         <v>1.57</v>
@@ -6217,10 +5497,10 @@
         <v>-2</v>
       </c>
       <c r="C12" t="n">
-        <v>-47.49</v>
+        <v>-42.73</v>
       </c>
       <c r="D12" t="n">
-        <v>9.27</v>
+        <v>20.89</v>
       </c>
       <c r="E12" t="n">
         <v>1.57</v>
@@ -6237,10 +5517,10 @@
         <v>-2</v>
       </c>
       <c r="C13" t="n">
-        <v>-46.87</v>
+        <v>-41.34</v>
       </c>
       <c r="D13" t="n">
-        <v>9.24</v>
+        <v>21.35</v>
       </c>
       <c r="E13" t="n">
         <v>1.57</v>
@@ -6257,10 +5537,10 @@
         <v>-2</v>
       </c>
       <c r="C14" t="n">
-        <v>-46.26</v>
+        <v>-39.92</v>
       </c>
       <c r="D14" t="n">
-        <v>9.220000000000001</v>
+        <v>21.76</v>
       </c>
       <c r="E14" t="n">
         <v>1.57</v>
@@ -6277,10 +5557,10 @@
         <v>-2</v>
       </c>
       <c r="C15" t="n">
-        <v>-45.64</v>
+        <v>-38.46</v>
       </c>
       <c r="D15" t="n">
-        <v>9.19</v>
+        <v>22.12</v>
       </c>
       <c r="E15" t="n">
         <v>1.57</v>
@@ -6297,10 +5577,10 @@
         <v>-2</v>
       </c>
       <c r="C16" t="n">
-        <v>-45.03</v>
+        <v>-36.99</v>
       </c>
       <c r="D16" t="n">
-        <v>9.17</v>
+        <v>22.44</v>
       </c>
       <c r="E16" t="n">
         <v>1.57</v>
@@ -6317,10 +5597,10 @@
         <v>-2</v>
       </c>
       <c r="C17" t="n">
-        <v>-44.42</v>
+        <v>-35.49</v>
       </c>
       <c r="D17" t="n">
-        <v>9.15</v>
+        <v>22.72</v>
       </c>
       <c r="E17" t="n">
         <v>1.57</v>
@@ -6337,10 +5617,10 @@
         <v>-2</v>
       </c>
       <c r="C18" t="n">
-        <v>-43.81</v>
+        <v>-33.98</v>
       </c>
       <c r="D18" t="n">
-        <v>9.140000000000001</v>
+        <v>23.53</v>
       </c>
       <c r="E18" t="n">
         <v>1.57</v>
@@ -6357,10 +5637,10 @@
         <v>-2</v>
       </c>
       <c r="C19" t="n">
-        <v>-43.2</v>
+        <v>-32.41</v>
       </c>
       <c r="D19" t="n">
-        <v>9.119999999999999</v>
+        <v>24.25</v>
       </c>
       <c r="E19" t="n">
         <v>1.57</v>
@@ -6377,10 +5657,10 @@
         <v>-2</v>
       </c>
       <c r="C20" t="n">
-        <v>-42.59</v>
+        <v>-30.79</v>
       </c>
       <c r="D20" t="n">
-        <v>9.109999999999999</v>
+        <v>24.89</v>
       </c>
       <c r="E20" t="n">
         <v>1.57</v>
@@ -6397,10 +5677,10 @@
         <v>-2</v>
       </c>
       <c r="C21" t="n">
-        <v>-41.99</v>
+        <v>-29.14</v>
       </c>
       <c r="D21" t="n">
-        <v>9.09</v>
+        <v>25.46</v>
       </c>
       <c r="E21" t="n">
         <v>1.57</v>
@@ -6417,10 +5697,10 @@
         <v>-2</v>
       </c>
       <c r="C22" t="n">
-        <v>-41.38</v>
+        <v>-27.44</v>
       </c>
       <c r="D22" t="n">
-        <v>9.08</v>
+        <v>25.96</v>
       </c>
       <c r="E22" t="n">
         <v>1.57</v>
@@ -6437,10 +5717,10 @@
         <v>-2</v>
       </c>
       <c r="C23" t="n">
-        <v>-40.77</v>
+        <v>-25.71</v>
       </c>
       <c r="D23" t="n">
-        <v>9.07</v>
+        <v>26.41</v>
       </c>
       <c r="E23" t="n">
         <v>1.57</v>
@@ -6457,10 +5737,10 @@
         <v>-2</v>
       </c>
       <c r="C24" t="n">
-        <v>-40.17</v>
+        <v>-23.95</v>
       </c>
       <c r="D24" t="n">
-        <v>9.07</v>
+        <v>26.81</v>
       </c>
       <c r="E24" t="n">
         <v>1.57</v>
@@ -6477,10 +5757,10 @@
         <v>-2</v>
       </c>
       <c r="C25" t="n">
-        <v>-39.56</v>
+        <v>-22.16</v>
       </c>
       <c r="D25" t="n">
-        <v>9.06</v>
+        <v>27.16</v>
       </c>
       <c r="E25" t="n">
         <v>1.57</v>
@@ -6497,10 +5777,10 @@
         <v>-2</v>
       </c>
       <c r="C26" t="n">
-        <v>-38.96</v>
+        <v>-20.35</v>
       </c>
       <c r="D26" t="n">
-        <v>9.050000000000001</v>
+        <v>27.48</v>
       </c>
       <c r="E26" t="n">
         <v>1.57</v>
@@ -6517,10 +5797,10 @@
         <v>-2</v>
       </c>
       <c r="C27" t="n">
-        <v>-38.36</v>
+        <v>-18.52</v>
       </c>
       <c r="D27" t="n">
-        <v>9.050000000000001</v>
+        <v>27.76</v>
       </c>
       <c r="E27" t="n">
         <v>1.57</v>
@@ -6537,10 +5817,10 @@
         <v>-2</v>
       </c>
       <c r="C28" t="n">
-        <v>-37.75</v>
+        <v>-16.67</v>
       </c>
       <c r="D28" t="n">
-        <v>9.039999999999999</v>
+        <v>28.01</v>
       </c>
       <c r="E28" t="n">
         <v>1.57</v>
@@ -6557,10 +5837,10 @@
         <v>-2</v>
       </c>
       <c r="C29" t="n">
-        <v>-37.15</v>
+        <v>-14.8</v>
       </c>
       <c r="D29" t="n">
-        <v>9.039999999999999</v>
+        <v>28.23</v>
       </c>
       <c r="E29" t="n">
         <v>1.57</v>
@@ -6577,10 +5857,10 @@
         <v>-2</v>
       </c>
       <c r="C30" t="n">
-        <v>-36.55</v>
+        <v>-12.92</v>
       </c>
       <c r="D30" t="n">
-        <v>9.029999999999999</v>
+        <v>28.43</v>
       </c>
       <c r="E30" t="n">
         <v>1.57</v>
@@ -6594,16 +5874,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-2</v>
+        <v>-1.93</v>
       </c>
       <c r="C31" t="n">
-        <v>-35.95</v>
+        <v>-11.02</v>
       </c>
       <c r="D31" t="n">
-        <v>9.029999999999999</v>
+        <v>28.6</v>
       </c>
       <c r="E31" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
@@ -6614,16 +5894,16 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-2</v>
+        <v>-1.73</v>
       </c>
       <c r="C32" t="n">
-        <v>-35.34</v>
+        <v>-9.130000000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>9.029999999999999</v>
+        <v>28.76</v>
       </c>
       <c r="E32" t="n">
-        <v>1.57</v>
+        <v>1.48</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
@@ -6634,16 +5914,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-2</v>
+        <v>-1.33</v>
       </c>
       <c r="C33" t="n">
-        <v>-34.74</v>
+        <v>-7.25</v>
       </c>
       <c r="D33" t="n">
-        <v>9.02</v>
+        <v>28.89</v>
       </c>
       <c r="E33" t="n">
-        <v>1.57</v>
+        <v>1.39</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
@@ -6654,16 +5934,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-2</v>
+        <v>-0.72</v>
       </c>
       <c r="C34" t="n">
-        <v>-34.14</v>
+        <v>-5.43</v>
       </c>
       <c r="D34" t="n">
-        <v>9.02</v>
+        <v>29.02</v>
       </c>
       <c r="E34" t="n">
-        <v>1.57</v>
+        <v>1.28</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
@@ -6674,16 +5954,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-2</v>
+        <v>0.13</v>
       </c>
       <c r="C35" t="n">
-        <v>-33.54</v>
+        <v>-3.69</v>
       </c>
       <c r="D35" t="n">
-        <v>9.02</v>
+        <v>29.13</v>
       </c>
       <c r="E35" t="n">
-        <v>1.57</v>
+        <v>1.16</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
@@ -6694,16 +5974,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-2</v>
+        <v>1.21</v>
       </c>
       <c r="C36" t="n">
-        <v>-32.94</v>
+        <v>-2.07</v>
       </c>
       <c r="D36" t="n">
-        <v>9.02</v>
+        <v>29.22</v>
       </c>
       <c r="E36" t="n">
-        <v>1.57</v>
+        <v>1.02</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
@@ -6714,16 +5994,16 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-2</v>
+        <v>2.51</v>
       </c>
       <c r="C37" t="n">
-        <v>-32.34</v>
+        <v>-0.63</v>
       </c>
       <c r="D37" t="n">
-        <v>9.01</v>
+        <v>29.31</v>
       </c>
       <c r="E37" t="n">
-        <v>1.57</v>
+        <v>0.88</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
@@ -6734,16 +6014,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-2</v>
+        <v>4.02</v>
       </c>
       <c r="C38" t="n">
-        <v>-31.74</v>
+        <v>0.61</v>
       </c>
       <c r="D38" t="n">
-        <v>9.01</v>
+        <v>29.39</v>
       </c>
       <c r="E38" t="n">
-        <v>1.57</v>
+        <v>0.73</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
@@ -6754,16 +6034,16 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-2</v>
+        <v>5.7</v>
       </c>
       <c r="C39" t="n">
-        <v>-31.14</v>
+        <v>1.62</v>
       </c>
       <c r="D39" t="n">
-        <v>9.01</v>
+        <v>29.45</v>
       </c>
       <c r="E39" t="n">
-        <v>1.57</v>
+        <v>0.58</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
@@ -6774,16 +6054,16 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-2</v>
+        <v>7.52</v>
       </c>
       <c r="C40" t="n">
-        <v>-30.53</v>
+        <v>2.37</v>
       </c>
       <c r="D40" t="n">
-        <v>9.01</v>
+        <v>29.52</v>
       </c>
       <c r="E40" t="n">
-        <v>1.57</v>
+        <v>0.43</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
@@ -6794,16 +6074,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-2</v>
+        <v>9.43</v>
       </c>
       <c r="C41" t="n">
-        <v>-29.93</v>
+        <v>2.83</v>
       </c>
       <c r="D41" t="n">
-        <v>9.01</v>
+        <v>29.57</v>
       </c>
       <c r="E41" t="n">
-        <v>1.57</v>
+        <v>0.28</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
@@ -6814,16 +6094,16 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-2</v>
+        <v>11.38</v>
       </c>
       <c r="C42" t="n">
-        <v>-29.33</v>
+        <v>3.11</v>
       </c>
       <c r="D42" t="n">
-        <v>9.01</v>
+        <v>29.62</v>
       </c>
       <c r="E42" t="n">
-        <v>1.57</v>
+        <v>0.17</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>
@@ -6834,16 +6114,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-2</v>
+        <v>13.35</v>
       </c>
       <c r="C43" t="n">
-        <v>-28.73</v>
+        <v>3.26</v>
       </c>
       <c r="D43" t="n">
-        <v>9.01</v>
+        <v>29.66</v>
       </c>
       <c r="E43" t="n">
-        <v>1.57</v>
+        <v>0.09</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
@@ -6854,16 +6134,16 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-2</v>
+        <v>15.33</v>
       </c>
       <c r="C44" t="n">
-        <v>-28.13</v>
+        <v>3.31</v>
       </c>
       <c r="D44" t="n">
-        <v>9.01</v>
+        <v>29.7</v>
       </c>
       <c r="E44" t="n">
-        <v>1.57</v>
+        <v>0.04</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
@@ -6874,16 +6154,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-2</v>
+        <v>17.31</v>
       </c>
       <c r="C45" t="n">
-        <v>-27.53</v>
+        <v>3.29</v>
       </c>
       <c r="D45" t="n">
-        <v>9.01</v>
+        <v>29.73</v>
       </c>
       <c r="E45" t="n">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>
@@ -6894,16 +6174,16 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-2</v>
+        <v>19.29</v>
       </c>
       <c r="C46" t="n">
-        <v>-26.93</v>
+        <v>3.23</v>
       </c>
       <c r="D46" t="n">
-        <v>9</v>
+        <v>29.76</v>
       </c>
       <c r="E46" t="n">
-        <v>1.57</v>
+        <v>-0.02</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
@@ -6914,16 +6194,16 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-2</v>
+        <v>21.27</v>
       </c>
       <c r="C47" t="n">
-        <v>-26.33</v>
+        <v>3.15</v>
       </c>
       <c r="D47" t="n">
-        <v>9</v>
+        <v>29.79</v>
       </c>
       <c r="E47" t="n">
-        <v>1.57</v>
+        <v>-0.04</v>
       </c>
       <c r="F47" t="b">
         <v>0</v>
@@ -6934,16 +6214,16 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>-2</v>
+        <v>23.25</v>
       </c>
       <c r="C48" t="n">
-        <v>-25.73</v>
+        <v>3.05</v>
       </c>
       <c r="D48" t="n">
-        <v>9</v>
+        <v>29.81</v>
       </c>
       <c r="E48" t="n">
-        <v>1.57</v>
+        <v>-0.05</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
@@ -6954,16 +6234,16 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-2</v>
+        <v>25.24</v>
       </c>
       <c r="C49" t="n">
-        <v>-25.13</v>
+        <v>2.95</v>
       </c>
       <c r="D49" t="n">
-        <v>9</v>
+        <v>29.83</v>
       </c>
       <c r="E49" t="n">
-        <v>1.57</v>
+        <v>-0.05</v>
       </c>
       <c r="F49" t="b">
         <v>0</v>
@@ -6974,16 +6254,16 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>-2</v>
+        <v>27.23</v>
       </c>
       <c r="C50" t="n">
-        <v>-24.53</v>
+        <v>2.84</v>
       </c>
       <c r="D50" t="n">
-        <v>9</v>
+        <v>29.85</v>
       </c>
       <c r="E50" t="n">
-        <v>1.57</v>
+        <v>-0.05</v>
       </c>
       <c r="F50" t="b">
         <v>0</v>
@@ -6994,16 +6274,16 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-2</v>
+        <v>29.21</v>
       </c>
       <c r="C51" t="n">
-        <v>-23.93</v>
+        <v>2.74</v>
       </c>
       <c r="D51" t="n">
-        <v>9</v>
+        <v>29.87</v>
       </c>
       <c r="E51" t="n">
-        <v>1.57</v>
+        <v>-0.05</v>
       </c>
       <c r="F51" t="b">
         <v>0</v>
@@ -7014,16 +6294,16 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>-2</v>
+        <v>31.2</v>
       </c>
       <c r="C52" t="n">
-        <v>-23.33</v>
+        <v>2.65</v>
       </c>
       <c r="D52" t="n">
-        <v>9</v>
+        <v>29.88</v>
       </c>
       <c r="E52" t="n">
-        <v>1.57</v>
+        <v>-0.05</v>
       </c>
       <c r="F52" t="b">
         <v>0</v>
@@ -7034,16 +6314,16 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>-2</v>
+        <v>33.19</v>
       </c>
       <c r="C53" t="n">
-        <v>-22.73</v>
+        <v>2.57</v>
       </c>
       <c r="D53" t="n">
-        <v>9</v>
+        <v>29.9</v>
       </c>
       <c r="E53" t="n">
-        <v>1.57</v>
+        <v>-0.04</v>
       </c>
       <c r="F53" t="b">
         <v>0</v>
@@ -7054,16 +6334,16 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>-2</v>
+        <v>35.18</v>
       </c>
       <c r="C54" t="n">
-        <v>-22.13</v>
+        <v>2.49</v>
       </c>
       <c r="D54" t="n">
-        <v>9</v>
+        <v>29.91</v>
       </c>
       <c r="E54" t="n">
-        <v>1.57</v>
+        <v>-0.04</v>
       </c>
       <c r="F54" t="b">
         <v>0</v>
@@ -7074,16 +6354,16 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>-2</v>
+        <v>37.18</v>
       </c>
       <c r="C55" t="n">
-        <v>-21.53</v>
+        <v>2.42</v>
       </c>
       <c r="D55" t="n">
-        <v>9</v>
+        <v>29.92</v>
       </c>
       <c r="E55" t="n">
-        <v>1.57</v>
+        <v>-0.04</v>
       </c>
       <c r="F55" t="b">
         <v>0</v>
@@ -7094,16 +6374,16 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>-2</v>
+        <v>39.17</v>
       </c>
       <c r="C56" t="n">
-        <v>-20.93</v>
+        <v>2.36</v>
       </c>
       <c r="D56" t="n">
-        <v>9</v>
+        <v>29.93</v>
       </c>
       <c r="E56" t="n">
-        <v>1.57</v>
+        <v>-0.03</v>
       </c>
       <c r="F56" t="b">
         <v>0</v>
@@ -7114,16 +6394,16 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>-2</v>
+        <v>41.16</v>
       </c>
       <c r="C57" t="n">
-        <v>-20.33</v>
+        <v>2.31</v>
       </c>
       <c r="D57" t="n">
-        <v>9</v>
+        <v>29.93</v>
       </c>
       <c r="E57" t="n">
-        <v>1.57</v>
+        <v>-0.03</v>
       </c>
       <c r="F57" t="b">
         <v>0</v>
@@ -7134,16 +6414,16 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>-2</v>
+        <v>43.16</v>
       </c>
       <c r="C58" t="n">
-        <v>-19.73</v>
+        <v>2.26</v>
       </c>
       <c r="D58" t="n">
-        <v>9</v>
+        <v>29.94</v>
       </c>
       <c r="E58" t="n">
-        <v>1.57</v>
+        <v>-0.02</v>
       </c>
       <c r="F58" t="b">
         <v>0</v>
@@ -7154,16 +6434,16 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>-2</v>
+        <v>45.16</v>
       </c>
       <c r="C59" t="n">
-        <v>-19.13</v>
+        <v>2.22</v>
       </c>
       <c r="D59" t="n">
-        <v>9</v>
+        <v>29.95</v>
       </c>
       <c r="E59" t="n">
-        <v>1.57</v>
+        <v>-0.02</v>
       </c>
       <c r="F59" t="b">
         <v>0</v>
@@ -7174,16 +6454,16 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>-2</v>
+        <v>47.15</v>
       </c>
       <c r="C60" t="n">
-        <v>-18.53</v>
+        <v>2.19</v>
       </c>
       <c r="D60" t="n">
-        <v>9</v>
+        <v>29.95</v>
       </c>
       <c r="E60" t="n">
-        <v>1.57</v>
+        <v>-0.02</v>
       </c>
       <c r="F60" t="b">
         <v>0</v>
@@ -7194,16 +6474,16 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>-2</v>
+        <v>49.15</v>
       </c>
       <c r="C61" t="n">
-        <v>-17.93</v>
+        <v>2.16</v>
       </c>
       <c r="D61" t="n">
-        <v>9</v>
+        <v>29.96</v>
       </c>
       <c r="E61" t="n">
-        <v>1.57</v>
+        <v>-0.02</v>
       </c>
       <c r="F61" t="b">
         <v>0</v>
@@ -7214,16 +6494,16 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>-2</v>
+        <v>51.15</v>
       </c>
       <c r="C62" t="n">
-        <v>-17.33</v>
+        <v>2.13</v>
       </c>
       <c r="D62" t="n">
-        <v>9</v>
+        <v>29.96</v>
       </c>
       <c r="E62" t="n">
-        <v>1.57</v>
+        <v>-0.01</v>
       </c>
       <c r="F62" t="b">
         <v>0</v>
@@ -7234,16 +6514,16 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>-2</v>
+        <v>53.14</v>
       </c>
       <c r="C63" t="n">
-        <v>-16.73</v>
+        <v>2.11</v>
       </c>
       <c r="D63" t="n">
-        <v>9</v>
+        <v>29.97</v>
       </c>
       <c r="E63" t="n">
-        <v>1.57</v>
+        <v>-0.01</v>
       </c>
       <c r="F63" t="b">
         <v>0</v>
@@ -7254,16 +6534,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-2</v>
+        <v>55.14</v>
       </c>
       <c r="C64" t="n">
-        <v>-16.13</v>
+        <v>2.09</v>
       </c>
       <c r="D64" t="n">
-        <v>9</v>
+        <v>29.97</v>
       </c>
       <c r="E64" t="n">
-        <v>1.57</v>
+        <v>-0.01</v>
       </c>
       <c r="F64" t="b">
         <v>0</v>
@@ -7274,19 +6554,19 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>-2</v>
+        <v>57.14</v>
       </c>
       <c r="C65" t="n">
-        <v>-15.53</v>
+        <v>2.08</v>
       </c>
       <c r="D65" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>1.57</v>
+        <v>-0.01</v>
       </c>
       <c r="F65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -7294,19 +6574,19 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-2</v>
+        <v>57.14</v>
       </c>
       <c r="C66" t="n">
-        <v>-14.93</v>
+        <v>2.08</v>
       </c>
       <c r="D66" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>1.57</v>
+        <v>-0.01</v>
       </c>
       <c r="F66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -7314,19 +6594,19 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-2</v>
+        <v>57.14</v>
       </c>
       <c r="C67" t="n">
-        <v>-14.33</v>
+        <v>2.08</v>
       </c>
       <c r="D67" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>1.57</v>
+        <v>-0.01</v>
       </c>
       <c r="F67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -7334,19 +6614,19 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-2</v>
+        <v>57.14</v>
       </c>
       <c r="C68" t="n">
-        <v>-13.73</v>
+        <v>2.08</v>
       </c>
       <c r="D68" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>1.57</v>
+        <v>-0.01</v>
       </c>
       <c r="F68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -7354,19 +6634,19 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-2</v>
+        <v>57.14</v>
       </c>
       <c r="C69" t="n">
-        <v>-13.13</v>
+        <v>2.08</v>
       </c>
       <c r="D69" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>1.57</v>
+        <v>-0.01</v>
       </c>
       <c r="F69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -7374,19 +6654,19 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-2.05</v>
+        <v>57.14</v>
       </c>
       <c r="C70" t="n">
-        <v>-12.53</v>
+        <v>2.08</v>
       </c>
       <c r="D70" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>1.59</v>
+        <v>-0.01</v>
       </c>
       <c r="F70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -7394,19 +6674,19 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-2.06</v>
+        <v>57.14</v>
       </c>
       <c r="C71" t="n">
-        <v>-11.93</v>
+        <v>2.08</v>
       </c>
       <c r="D71" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>1.59</v>
+        <v>-0.01</v>
       </c>
       <c r="F71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -7414,19 +6694,19 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-2.05</v>
+        <v>57.14</v>
       </c>
       <c r="C72" t="n">
-        <v>-11.33</v>
+        <v>2.08</v>
       </c>
       <c r="D72" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>1.58</v>
+        <v>-0.01</v>
       </c>
       <c r="F72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -7434,19 +6714,19 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-2</v>
+        <v>57.14</v>
       </c>
       <c r="C73" t="n">
-        <v>-10.73</v>
+        <v>2.08</v>
       </c>
       <c r="D73" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>1.56</v>
+        <v>-0.01</v>
       </c>
       <c r="F73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -7454,19 +6734,19 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-1.93</v>
+        <v>57.14</v>
       </c>
       <c r="C74" t="n">
-        <v>-10.14</v>
+        <v>2.08</v>
       </c>
       <c r="D74" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>1.53</v>
+        <v>-0.01</v>
       </c>
       <c r="F74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -7474,19 +6754,19 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-1.83</v>
+        <v>57.14</v>
       </c>
       <c r="C75" t="n">
-        <v>-9.550000000000001</v>
+        <v>2.08</v>
       </c>
       <c r="D75" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>1.5</v>
+        <v>-0.01</v>
       </c>
       <c r="F75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -7494,19 +6774,19 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-1.71</v>
+        <v>57.14</v>
       </c>
       <c r="C76" t="n">
-        <v>-8.960000000000001</v>
+        <v>2.08</v>
       </c>
       <c r="D76" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>1.47</v>
+        <v>-0.01</v>
       </c>
       <c r="F76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -7514,19 +6794,19 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-1.56</v>
+        <v>57.14</v>
       </c>
       <c r="C77" t="n">
-        <v>-8.380000000000001</v>
+        <v>2.08</v>
       </c>
       <c r="D77" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>1.44</v>
+        <v>-0.01</v>
       </c>
       <c r="F77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -7534,19 +6814,19 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-1.39</v>
+        <v>57.14</v>
       </c>
       <c r="C78" t="n">
-        <v>-7.8</v>
+        <v>2.08</v>
       </c>
       <c r="D78" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>1.4</v>
+        <v>-0.01</v>
       </c>
       <c r="F78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -7554,259 +6834,19 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-1.2</v>
+        <v>57.14</v>
       </c>
       <c r="C79" t="n">
-        <v>-7.23</v>
+        <v>2.08</v>
       </c>
       <c r="D79" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>1.36</v>
+        <v>-0.01</v>
       </c>
       <c r="F79" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>-0.98</v>
-      </c>
-      <c r="C80" t="n">
-        <v>-6.67</v>
-      </c>
-      <c r="D80" t="n">
-        <v>9</v>
-      </c>
-      <c r="E80" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="F80" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>-0.74</v>
-      </c>
-      <c r="C81" t="n">
-        <v>-6.12</v>
-      </c>
-      <c r="D81" t="n">
-        <v>9</v>
-      </c>
-      <c r="E81" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="F81" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>-0.47</v>
-      </c>
-      <c r="C82" t="n">
-        <v>-5.59</v>
-      </c>
-      <c r="D82" t="n">
-        <v>9</v>
-      </c>
-      <c r="E82" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="F82" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>-0.19</v>
-      </c>
-      <c r="C83" t="n">
-        <v>-5.06</v>
-      </c>
-      <c r="D83" t="n">
-        <v>9</v>
-      </c>
-      <c r="E83" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="F83" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="C84" t="n">
-        <v>-4.55</v>
-      </c>
-      <c r="D84" t="n">
-        <v>9</v>
-      </c>
-      <c r="E84" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="F84" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="C85" t="n">
-        <v>-4.05</v>
-      </c>
-      <c r="D85" t="n">
-        <v>9</v>
-      </c>
-      <c r="E85" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="F85" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="C86" t="n">
-        <v>-3.56</v>
-      </c>
-      <c r="D86" t="n">
-        <v>9</v>
-      </c>
-      <c r="E86" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="F86" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="C87" t="n">
-        <v>-3.1</v>
-      </c>
-      <c r="D87" t="n">
-        <v>9</v>
-      </c>
-      <c r="E87" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="F87" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="C88" t="n">
-        <v>-2.65</v>
-      </c>
-      <c r="D88" t="n">
-        <v>9</v>
-      </c>
-      <c r="E88" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="F88" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="C89" t="n">
-        <v>-2.22</v>
-      </c>
-      <c r="D89" t="n">
-        <v>9</v>
-      </c>
-      <c r="E89" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="F89" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="C90" t="n">
-        <v>-1.81</v>
-      </c>
-      <c r="D90" t="n">
-        <v>9</v>
-      </c>
-      <c r="E90" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="F90" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="C91" t="n">
-        <v>-1.41</v>
-      </c>
-      <c r="D91" t="n">
-        <v>9</v>
-      </c>
-      <c r="E91" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="F91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Excel/FCFS/19.xlsx
+++ b/Data/Excel/FCFS/19.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F79"/>
+  <dimension ref="A1:F99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>54.72</v>
+        <v>55.72</v>
       </c>
       <c r="C2" t="n">
         <v>-2</v>
@@ -481,7 +481,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>54.18</v>
+        <v>55.19</v>
       </c>
       <c r="C3" t="n">
         <v>-2</v>
@@ -501,7 +501,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>53.65</v>
+        <v>54.66</v>
       </c>
       <c r="C4" t="n">
         <v>-2</v>
@@ -521,7 +521,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>53.12</v>
+        <v>54.12</v>
       </c>
       <c r="C5" t="n">
         <v>-2</v>
@@ -541,7 +541,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>52.58</v>
+        <v>53.59</v>
       </c>
       <c r="C6" t="n">
         <v>-2</v>
@@ -561,7 +561,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>52.05</v>
+        <v>53.06</v>
       </c>
       <c r="C7" t="n">
         <v>-2</v>
@@ -581,7 +581,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>51.52</v>
+        <v>52.52</v>
       </c>
       <c r="C8" t="n">
         <v>-2</v>
@@ -601,7 +601,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>50.98</v>
+        <v>51.99</v>
       </c>
       <c r="C9" t="n">
         <v>-2</v>
@@ -621,7 +621,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>50.45</v>
+        <v>51.46</v>
       </c>
       <c r="C10" t="n">
         <v>-2</v>
@@ -641,7 +641,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>49.92</v>
+        <v>50.92</v>
       </c>
       <c r="C11" t="n">
         <v>-2</v>
@@ -661,7 +661,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>49.38</v>
+        <v>50.39</v>
       </c>
       <c r="C12" t="n">
         <v>-2</v>
@@ -681,7 +681,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>48.85</v>
+        <v>49.86</v>
       </c>
       <c r="C13" t="n">
         <v>-2</v>
@@ -701,7 +701,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>48.32</v>
+        <v>49.32</v>
       </c>
       <c r="C14" t="n">
         <v>-2</v>
@@ -721,7 +721,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>47.78</v>
+        <v>48.79</v>
       </c>
       <c r="C15" t="n">
         <v>-2</v>
@@ -741,7 +741,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>47.25</v>
+        <v>48.26</v>
       </c>
       <c r="C16" t="n">
         <v>-2</v>
@@ -761,7 +761,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>46.72</v>
+        <v>47.72</v>
       </c>
       <c r="C17" t="n">
         <v>-2</v>
@@ -781,7 +781,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>46.18</v>
+        <v>47.19</v>
       </c>
       <c r="C18" t="n">
         <v>-2</v>
@@ -801,7 +801,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>45.65</v>
+        <v>46.66</v>
       </c>
       <c r="C19" t="n">
         <v>-2</v>
@@ -821,7 +821,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>45.12</v>
+        <v>46.12</v>
       </c>
       <c r="C20" t="n">
         <v>-2</v>
@@ -841,7 +841,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>44.58</v>
+        <v>45.59</v>
       </c>
       <c r="C21" t="n">
         <v>-2</v>
@@ -861,7 +861,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>44.05</v>
+        <v>45.06</v>
       </c>
       <c r="C22" t="n">
         <v>-2</v>
@@ -881,7 +881,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>43.52</v>
+        <v>44.52</v>
       </c>
       <c r="C23" t="n">
         <v>-2</v>
@@ -901,7 +901,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>42.98</v>
+        <v>43.99</v>
       </c>
       <c r="C24" t="n">
         <v>-2</v>
@@ -921,7 +921,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>42.45</v>
+        <v>43.46</v>
       </c>
       <c r="C25" t="n">
         <v>-2</v>
@@ -941,7 +941,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>41.92</v>
+        <v>42.92</v>
       </c>
       <c r="C26" t="n">
         <v>-2</v>
@@ -961,7 +961,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>41.38</v>
+        <v>42.39</v>
       </c>
       <c r="C27" t="n">
         <v>-2</v>
@@ -981,7 +981,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>40.85</v>
+        <v>41.86</v>
       </c>
       <c r="C28" t="n">
         <v>-2</v>
@@ -1001,7 +1001,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>40.32</v>
+        <v>41.32</v>
       </c>
       <c r="C29" t="n">
         <v>-2</v>
@@ -1021,7 +1021,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>39.78</v>
+        <v>40.79</v>
       </c>
       <c r="C30" t="n">
         <v>-2</v>
@@ -1041,7 +1041,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>39.25</v>
+        <v>40.26</v>
       </c>
       <c r="C31" t="n">
         <v>-2</v>
@@ -1061,7 +1061,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>38.72</v>
+        <v>39.72</v>
       </c>
       <c r="C32" t="n">
         <v>-2</v>
@@ -1081,7 +1081,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>38.18</v>
+        <v>39.19</v>
       </c>
       <c r="C33" t="n">
         <v>-2</v>
@@ -1101,7 +1101,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>37.65</v>
+        <v>38.66</v>
       </c>
       <c r="C34" t="n">
         <v>-2</v>
@@ -1121,7 +1121,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>37.12</v>
+        <v>38.12</v>
       </c>
       <c r="C35" t="n">
         <v>-2</v>
@@ -1141,7 +1141,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>36.58</v>
+        <v>37.59</v>
       </c>
       <c r="C36" t="n">
         <v>-2</v>
@@ -1161,7 +1161,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>36.05</v>
+        <v>37.06</v>
       </c>
       <c r="C37" t="n">
         <v>-2</v>
@@ -1181,7 +1181,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>35.52</v>
+        <v>36.52</v>
       </c>
       <c r="C38" t="n">
         <v>-2</v>
@@ -1201,7 +1201,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>34.98</v>
+        <v>35.99</v>
       </c>
       <c r="C39" t="n">
         <v>-2</v>
@@ -1221,7 +1221,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>34.45</v>
+        <v>35.46</v>
       </c>
       <c r="C40" t="n">
         <v>-2</v>
@@ -1241,7 +1241,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>33.92</v>
+        <v>34.92</v>
       </c>
       <c r="C41" t="n">
         <v>-2</v>
@@ -1261,7 +1261,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>33.38</v>
+        <v>34.39</v>
       </c>
       <c r="C42" t="n">
         <v>-2</v>
@@ -1281,7 +1281,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>32.85</v>
+        <v>33.86</v>
       </c>
       <c r="C43" t="n">
         <v>-2</v>
@@ -1301,7 +1301,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>32.32</v>
+        <v>33.32</v>
       </c>
       <c r="C44" t="n">
         <v>-2</v>
@@ -1321,7 +1321,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>31.78</v>
+        <v>32.79</v>
       </c>
       <c r="C45" t="n">
         <v>-2</v>
@@ -1341,7 +1341,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>31.25</v>
+        <v>32.26</v>
       </c>
       <c r="C46" t="n">
         <v>-2</v>
@@ -1361,7 +1361,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>30.72</v>
+        <v>31.72</v>
       </c>
       <c r="C47" t="n">
         <v>-2</v>
@@ -1381,7 +1381,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>30.18</v>
+        <v>31.19</v>
       </c>
       <c r="C48" t="n">
         <v>-2</v>
@@ -1401,7 +1401,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>29.65</v>
+        <v>30.66</v>
       </c>
       <c r="C49" t="n">
         <v>-2</v>
@@ -1421,7 +1421,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>29.12</v>
+        <v>30.12</v>
       </c>
       <c r="C50" t="n">
         <v>-2</v>
@@ -1441,7 +1441,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>28.58</v>
+        <v>29.59</v>
       </c>
       <c r="C51" t="n">
         <v>-2</v>
@@ -1461,7 +1461,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>28.05</v>
+        <v>29.06</v>
       </c>
       <c r="C52" t="n">
         <v>-2</v>
@@ -1481,7 +1481,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>27.52</v>
+        <v>28.52</v>
       </c>
       <c r="C53" t="n">
         <v>-2</v>
@@ -1501,7 +1501,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>26.98</v>
+        <v>27.99</v>
       </c>
       <c r="C54" t="n">
         <v>-2</v>
@@ -1521,7 +1521,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>26.45</v>
+        <v>27.46</v>
       </c>
       <c r="C55" t="n">
         <v>-2</v>
@@ -1541,7 +1541,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>25.92</v>
+        <v>26.92</v>
       </c>
       <c r="C56" t="n">
         <v>-2</v>
@@ -1561,7 +1561,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>25.38</v>
+        <v>26.39</v>
       </c>
       <c r="C57" t="n">
         <v>-2</v>
@@ -1581,7 +1581,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>24.85</v>
+        <v>25.86</v>
       </c>
       <c r="C58" t="n">
         <v>-2</v>
@@ -1601,7 +1601,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>24.32</v>
+        <v>25.32</v>
       </c>
       <c r="C59" t="n">
         <v>-2</v>
@@ -1621,7 +1621,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>23.78</v>
+        <v>24.79</v>
       </c>
       <c r="C60" t="n">
         <v>-2</v>
@@ -1641,7 +1641,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>23.25</v>
+        <v>24.26</v>
       </c>
       <c r="C61" t="n">
         <v>-2</v>
@@ -1661,7 +1661,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>22.72</v>
+        <v>23.72</v>
       </c>
       <c r="C62" t="n">
         <v>-2</v>
@@ -1681,7 +1681,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>22.18</v>
+        <v>23.19</v>
       </c>
       <c r="C63" t="n">
         <v>-2</v>
@@ -1701,7 +1701,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>21.65</v>
+        <v>22.66</v>
       </c>
       <c r="C64" t="n">
         <v>-2</v>
@@ -1721,7 +1721,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>21.12</v>
+        <v>22.12</v>
       </c>
       <c r="C65" t="n">
         <v>-2</v>
@@ -1741,7 +1741,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>20.58</v>
+        <v>21.59</v>
       </c>
       <c r="C66" t="n">
         <v>-2</v>
@@ -1761,7 +1761,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>20.05</v>
+        <v>21.06</v>
       </c>
       <c r="C67" t="n">
         <v>-2</v>
@@ -1781,7 +1781,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>19.52</v>
+        <v>20.52</v>
       </c>
       <c r="C68" t="n">
         <v>-2</v>
@@ -1801,7 +1801,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>18.98</v>
+        <v>19.99</v>
       </c>
       <c r="C69" t="n">
         <v>-2</v>
@@ -1821,7 +1821,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>18.45</v>
+        <v>19.46</v>
       </c>
       <c r="C70" t="n">
         <v>-2</v>
@@ -1841,7 +1841,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>17.92</v>
+        <v>18.92</v>
       </c>
       <c r="C71" t="n">
         <v>-2</v>
@@ -1861,7 +1861,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>17.38</v>
+        <v>18.39</v>
       </c>
       <c r="C72" t="n">
         <v>-2</v>
@@ -1881,7 +1881,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>16.85</v>
+        <v>17.86</v>
       </c>
       <c r="C73" t="n">
         <v>-2</v>
@@ -1901,7 +1901,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>16.32</v>
+        <v>17.32</v>
       </c>
       <c r="C74" t="n">
         <v>-2</v>
@@ -1921,7 +1921,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>15.78</v>
+        <v>16.79</v>
       </c>
       <c r="C75" t="n">
         <v>-2</v>
@@ -1941,7 +1941,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>15.25</v>
+        <v>16.26</v>
       </c>
       <c r="C76" t="n">
         <v>-2</v>
@@ -1961,7 +1961,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>14.72</v>
+        <v>15.72</v>
       </c>
       <c r="C77" t="n">
         <v>-2</v>
@@ -1981,7 +1981,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>14.18</v>
+        <v>15.19</v>
       </c>
       <c r="C78" t="n">
         <v>-2</v>
@@ -2001,7 +2001,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>13.65</v>
+        <v>14.66</v>
       </c>
       <c r="C79" t="n">
         <v>-2</v>
@@ -2013,6 +2013,406 @@
         <v>3.14</v>
       </c>
       <c r="F79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>14.12</v>
+      </c>
+      <c r="C80" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D80" t="n">
+        <v>8</v>
+      </c>
+      <c r="E80" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="F80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>13.59</v>
+      </c>
+      <c r="C81" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D81" t="n">
+        <v>8</v>
+      </c>
+      <c r="E81" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="F81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>13.06</v>
+      </c>
+      <c r="C82" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D82" t="n">
+        <v>8</v>
+      </c>
+      <c r="E82" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="F82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>12.53</v>
+      </c>
+      <c r="C83" t="n">
+        <v>-2.05</v>
+      </c>
+      <c r="D83" t="n">
+        <v>8</v>
+      </c>
+      <c r="E83" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="F83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="C84" t="n">
+        <v>-2.07</v>
+      </c>
+      <c r="D84" t="n">
+        <v>8</v>
+      </c>
+      <c r="E84" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="F84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>11.46</v>
+      </c>
+      <c r="C85" t="n">
+        <v>-2.05</v>
+      </c>
+      <c r="D85" t="n">
+        <v>8</v>
+      </c>
+      <c r="E85" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="F85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="C86" t="n">
+        <v>-2.02</v>
+      </c>
+      <c r="D86" t="n">
+        <v>8</v>
+      </c>
+      <c r="E86" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="F86" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="C87" t="n">
+        <v>-1.96</v>
+      </c>
+      <c r="D87" t="n">
+        <v>8</v>
+      </c>
+      <c r="E87" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="F87" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="C88" t="n">
+        <v>-1.88</v>
+      </c>
+      <c r="D88" t="n">
+        <v>8</v>
+      </c>
+      <c r="E88" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="F88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>9.34</v>
+      </c>
+      <c r="C89" t="n">
+        <v>-1.79</v>
+      </c>
+      <c r="D89" t="n">
+        <v>8</v>
+      </c>
+      <c r="E89" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="F89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="C90" t="n">
+        <v>-1.67</v>
+      </c>
+      <c r="D90" t="n">
+        <v>8</v>
+      </c>
+      <c r="E90" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="F90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>8.31</v>
+      </c>
+      <c r="C91" t="n">
+        <v>-1.54</v>
+      </c>
+      <c r="D91" t="n">
+        <v>8</v>
+      </c>
+      <c r="E91" t="n">
+        <v>3</v>
+      </c>
+      <c r="F91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="C92" t="n">
+        <v>-1.38</v>
+      </c>
+      <c r="D92" t="n">
+        <v>8</v>
+      </c>
+      <c r="E92" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="F92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="C93" t="n">
+        <v>-1.21</v>
+      </c>
+      <c r="D93" t="n">
+        <v>8</v>
+      </c>
+      <c r="E93" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="F93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="C94" t="n">
+        <v>-1.02</v>
+      </c>
+      <c r="D94" t="n">
+        <v>8</v>
+      </c>
+      <c r="E94" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="F94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C95" t="n">
+        <v>-0.8100000000000001</v>
+      </c>
+      <c r="D95" t="n">
+        <v>8</v>
+      </c>
+      <c r="E95" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="F95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="C96" t="n">
+        <v>-0.59</v>
+      </c>
+      <c r="D96" t="n">
+        <v>8</v>
+      </c>
+      <c r="E96" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="F96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="C97" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="D97" t="n">
+        <v>8</v>
+      </c>
+      <c r="E97" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="F97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="C98" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="D98" t="n">
+        <v>8</v>
+      </c>
+      <c r="E98" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="F98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="D99" t="n">
+        <v>8</v>
+      </c>
+      <c r="E99" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="F99" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2027,7 +2427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F79"/>
+  <dimension ref="A1:F99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2075,10 +2475,10 @@
         <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>60.06</v>
+        <v>40.76</v>
       </c>
       <c r="D2" t="n">
-        <v>11.11</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="E2" t="n">
         <v>-1.57</v>
@@ -2095,10 +2495,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>59.32</v>
+        <v>40.1</v>
       </c>
       <c r="D3" t="n">
-        <v>12.1</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="E3" t="n">
         <v>-1.57</v>
@@ -2115,10 +2515,10 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>58.52</v>
+        <v>39.45</v>
       </c>
       <c r="D4" t="n">
-        <v>12.98</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E4" t="n">
         <v>-1.57</v>
@@ -2135,10 +2535,10 @@
         <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>57.65</v>
+        <v>38.8</v>
       </c>
       <c r="D5" t="n">
-        <v>13.76</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="E5" t="n">
         <v>-1.57</v>
@@ -2155,10 +2555,10 @@
         <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>56.73</v>
+        <v>38.16</v>
       </c>
       <c r="D6" t="n">
-        <v>14.45</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="E6" t="n">
         <v>-1.57</v>
@@ -2175,10 +2575,10 @@
         <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>55.77</v>
+        <v>37.52</v>
       </c>
       <c r="D7" t="n">
-        <v>15.07</v>
+        <v>9.49</v>
       </c>
       <c r="E7" t="n">
         <v>-1.57</v>
@@ -2195,10 +2595,10 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>54.77</v>
+        <v>36.89</v>
       </c>
       <c r="D8" t="n">
-        <v>15.62</v>
+        <v>9.44</v>
       </c>
       <c r="E8" t="n">
         <v>-1.57</v>
@@ -2215,10 +2615,10 @@
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>53.72</v>
+        <v>36.26</v>
       </c>
       <c r="D9" t="n">
-        <v>16.1</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="E9" t="n">
         <v>-1.57</v>
@@ -2235,10 +2635,10 @@
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>52.65</v>
+        <v>35.64</v>
       </c>
       <c r="D10" t="n">
-        <v>16.54</v>
+        <v>9.35</v>
       </c>
       <c r="E10" t="n">
         <v>-1.57</v>
@@ -2255,10 +2655,10 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>51.55</v>
+        <v>35.01</v>
       </c>
       <c r="D11" t="n">
-        <v>16.92</v>
+        <v>9.31</v>
       </c>
       <c r="E11" t="n">
         <v>-1.57</v>
@@ -2275,10 +2675,10 @@
         <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>50.42</v>
+        <v>34.39</v>
       </c>
       <c r="D12" t="n">
-        <v>17.26</v>
+        <v>9.27</v>
       </c>
       <c r="E12" t="n">
         <v>-1.57</v>
@@ -2295,10 +2695,10 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>49.27</v>
+        <v>33.77</v>
       </c>
       <c r="D13" t="n">
-        <v>17.57</v>
+        <v>9.24</v>
       </c>
       <c r="E13" t="n">
         <v>-1.57</v>
@@ -2315,10 +2715,10 @@
         <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>48.1</v>
+        <v>33.16</v>
       </c>
       <c r="D14" t="n">
-        <v>17.84</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="E14" t="n">
         <v>-1.57</v>
@@ -2335,10 +2735,10 @@
         <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>46.91</v>
+        <v>32.54</v>
       </c>
       <c r="D15" t="n">
-        <v>18.08</v>
+        <v>9.19</v>
       </c>
       <c r="E15" t="n">
         <v>-1.57</v>
@@ -2355,10 +2755,10 @@
         <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>45.7</v>
+        <v>31.93</v>
       </c>
       <c r="D16" t="n">
-        <v>18.29</v>
+        <v>9.17</v>
       </c>
       <c r="E16" t="n">
         <v>-1.57</v>
@@ -2375,10 +2775,10 @@
         <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>44.48</v>
+        <v>31.32</v>
       </c>
       <c r="D17" t="n">
-        <v>18.48</v>
+        <v>9.15</v>
       </c>
       <c r="E17" t="n">
         <v>-1.57</v>
@@ -2395,10 +2795,10 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>43.25</v>
+        <v>30.71</v>
       </c>
       <c r="D18" t="n">
-        <v>18.65</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="E18" t="n">
         <v>-1.57</v>
@@ -2415,10 +2815,10 @@
         <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>42.01</v>
+        <v>30.1</v>
       </c>
       <c r="D19" t="n">
-        <v>18.8</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="E19" t="n">
         <v>-1.57</v>
@@ -2435,10 +2835,10 @@
         <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>40.76</v>
+        <v>29.49</v>
       </c>
       <c r="D20" t="n">
-        <v>18.93</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="E20" t="n">
         <v>-1.57</v>
@@ -2455,10 +2855,10 @@
         <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>39.49</v>
+        <v>28.88</v>
       </c>
       <c r="D21" t="n">
-        <v>19.05</v>
+        <v>9.09</v>
       </c>
       <c r="E21" t="n">
         <v>-1.57</v>
@@ -2475,10 +2875,10 @@
         <v>2</v>
       </c>
       <c r="C22" t="n">
-        <v>38.22</v>
+        <v>28.28</v>
       </c>
       <c r="D22" t="n">
-        <v>19.16</v>
+        <v>9.08</v>
       </c>
       <c r="E22" t="n">
         <v>-1.57</v>
@@ -2495,10 +2895,10 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>36.95</v>
+        <v>27.67</v>
       </c>
       <c r="D23" t="n">
-        <v>19.25</v>
+        <v>9.07</v>
       </c>
       <c r="E23" t="n">
         <v>-1.57</v>
@@ -2515,10 +2915,10 @@
         <v>2</v>
       </c>
       <c r="C24" t="n">
-        <v>35.66</v>
+        <v>27.07</v>
       </c>
       <c r="D24" t="n">
-        <v>19.33</v>
+        <v>9.07</v>
       </c>
       <c r="E24" t="n">
         <v>-1.57</v>
@@ -2535,10 +2935,10 @@
         <v>2</v>
       </c>
       <c r="C25" t="n">
-        <v>34.37</v>
+        <v>26.46</v>
       </c>
       <c r="D25" t="n">
-        <v>19.41</v>
+        <v>9.06</v>
       </c>
       <c r="E25" t="n">
         <v>-1.57</v>
@@ -2555,10 +2955,10 @@
         <v>2</v>
       </c>
       <c r="C26" t="n">
-        <v>33.08</v>
+        <v>25.86</v>
       </c>
       <c r="D26" t="n">
-        <v>19.47</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="E26" t="n">
         <v>-1.57</v>
@@ -2575,10 +2975,10 @@
         <v>2</v>
       </c>
       <c r="C27" t="n">
-        <v>31.78</v>
+        <v>25.26</v>
       </c>
       <c r="D27" t="n">
-        <v>19.53</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="E27" t="n">
         <v>-1.57</v>
@@ -2595,10 +2995,10 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>30.48</v>
+        <v>24.65</v>
       </c>
       <c r="D28" t="n">
-        <v>19.58</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="E28" t="n">
         <v>-1.57</v>
@@ -2615,10 +3015,10 @@
         <v>2</v>
       </c>
       <c r="C29" t="n">
-        <v>29.17</v>
+        <v>24.05</v>
       </c>
       <c r="D29" t="n">
-        <v>19.63</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="E29" t="n">
         <v>-1.57</v>
@@ -2635,10 +3035,10 @@
         <v>2</v>
       </c>
       <c r="C30" t="n">
-        <v>27.87</v>
+        <v>23.45</v>
       </c>
       <c r="D30" t="n">
-        <v>19.67</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="E30" t="n">
         <v>-1.57</v>
@@ -2655,10 +3055,10 @@
         <v>2</v>
       </c>
       <c r="C31" t="n">
-        <v>26.55</v>
+        <v>22.85</v>
       </c>
       <c r="D31" t="n">
-        <v>19.71</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="E31" t="n">
         <v>-1.57</v>
@@ -2675,10 +3075,10 @@
         <v>2</v>
       </c>
       <c r="C32" t="n">
-        <v>25.24</v>
+        <v>22.24</v>
       </c>
       <c r="D32" t="n">
-        <v>19.74</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="E32" t="n">
         <v>-1.57</v>
@@ -2695,10 +3095,10 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>23.92</v>
+        <v>21.64</v>
       </c>
       <c r="D33" t="n">
-        <v>19.77</v>
+        <v>9.02</v>
       </c>
       <c r="E33" t="n">
         <v>-1.57</v>
@@ -2715,10 +3115,10 @@
         <v>2</v>
       </c>
       <c r="C34" t="n">
-        <v>22.61</v>
+        <v>21.04</v>
       </c>
       <c r="D34" t="n">
-        <v>19.79</v>
+        <v>9.02</v>
       </c>
       <c r="E34" t="n">
         <v>-1.57</v>
@@ -2735,10 +3135,10 @@
         <v>2</v>
       </c>
       <c r="C35" t="n">
-        <v>21.29</v>
+        <v>20.44</v>
       </c>
       <c r="D35" t="n">
-        <v>19.82</v>
+        <v>9.02</v>
       </c>
       <c r="E35" t="n">
         <v>-1.57</v>
@@ -2755,10 +3155,10 @@
         <v>2</v>
       </c>
       <c r="C36" t="n">
-        <v>19.97</v>
+        <v>19.84</v>
       </c>
       <c r="D36" t="n">
-        <v>19.84</v>
+        <v>9.02</v>
       </c>
       <c r="E36" t="n">
         <v>-1.57</v>
@@ -2775,10 +3175,10 @@
         <v>2</v>
       </c>
       <c r="C37" t="n">
-        <v>18.64</v>
+        <v>19.24</v>
       </c>
       <c r="D37" t="n">
-        <v>19.86</v>
+        <v>9.01</v>
       </c>
       <c r="E37" t="n">
         <v>-1.57</v>
@@ -2795,10 +3195,10 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>17.32</v>
+        <v>18.64</v>
       </c>
       <c r="D38" t="n">
-        <v>19.87</v>
+        <v>9.01</v>
       </c>
       <c r="E38" t="n">
         <v>-1.57</v>
@@ -2815,10 +3215,10 @@
         <v>2</v>
       </c>
       <c r="C39" t="n">
-        <v>15.99</v>
+        <v>18.03</v>
       </c>
       <c r="D39" t="n">
-        <v>19.89</v>
+        <v>9.01</v>
       </c>
       <c r="E39" t="n">
         <v>-1.57</v>
@@ -2835,10 +3235,10 @@
         <v>2</v>
       </c>
       <c r="C40" t="n">
-        <v>14.67</v>
+        <v>17.43</v>
       </c>
       <c r="D40" t="n">
-        <v>20.45</v>
+        <v>9.01</v>
       </c>
       <c r="E40" t="n">
         <v>-1.57</v>
@@ -2855,10 +3255,10 @@
         <v>2</v>
       </c>
       <c r="C41" t="n">
-        <v>13.31</v>
+        <v>16.83</v>
       </c>
       <c r="D41" t="n">
-        <v>20.96</v>
+        <v>9.01</v>
       </c>
       <c r="E41" t="n">
         <v>-1.57</v>
@@ -2875,10 +3275,10 @@
         <v>2</v>
       </c>
       <c r="C42" t="n">
-        <v>11.91</v>
+        <v>16.23</v>
       </c>
       <c r="D42" t="n">
-        <v>21.41</v>
+        <v>9.01</v>
       </c>
       <c r="E42" t="n">
         <v>-1.57</v>
@@ -2892,16 +3292,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>10.48</v>
+        <v>15.63</v>
       </c>
       <c r="D43" t="n">
-        <v>21.81</v>
+        <v>9.01</v>
       </c>
       <c r="E43" t="n">
-        <v>-1.6</v>
+        <v>-1.57</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
@@ -2912,16 +3312,16 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1.73</v>
+        <v>2</v>
       </c>
       <c r="C44" t="n">
-        <v>9.039999999999999</v>
+        <v>15.03</v>
       </c>
       <c r="D44" t="n">
-        <v>22.16</v>
+        <v>9.01</v>
       </c>
       <c r="E44" t="n">
-        <v>-1.66</v>
+        <v>-1.57</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
@@ -2932,16 +3332,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1.41</v>
+        <v>2</v>
       </c>
       <c r="C45" t="n">
-        <v>7.6</v>
+        <v>14.43</v>
       </c>
       <c r="D45" t="n">
-        <v>22.48</v>
+        <v>9.01</v>
       </c>
       <c r="E45" t="n">
-        <v>-1.73</v>
+        <v>-1.57</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>
@@ -2952,16 +3352,16 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.95</v>
+        <v>2</v>
       </c>
       <c r="C46" t="n">
-        <v>6.17</v>
+        <v>13.83</v>
       </c>
       <c r="D46" t="n">
-        <v>22.76</v>
+        <v>9</v>
       </c>
       <c r="E46" t="n">
-        <v>-1.82</v>
+        <v>-1.57</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
@@ -2972,16 +3372,16 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.34</v>
+        <v>2</v>
       </c>
       <c r="C47" t="n">
-        <v>4.79</v>
+        <v>13.23</v>
       </c>
       <c r="D47" t="n">
-        <v>23.56</v>
+        <v>9</v>
       </c>
       <c r="E47" t="n">
-        <v>-1.92</v>
+        <v>-1.57</v>
       </c>
       <c r="F47" t="b">
         <v>0</v>
@@ -2992,16 +3392,16 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.45</v>
+        <v>2.05</v>
       </c>
       <c r="C48" t="n">
-        <v>3.43</v>
+        <v>12.63</v>
       </c>
       <c r="D48" t="n">
-        <v>24.28</v>
+        <v>9</v>
       </c>
       <c r="E48" t="n">
-        <v>-2.03</v>
+        <v>-1.55</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
@@ -3012,16 +3412,16 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-1.42</v>
+        <v>2.07</v>
       </c>
       <c r="C49" t="n">
-        <v>2.13</v>
+        <v>12.03</v>
       </c>
       <c r="D49" t="n">
-        <v>24.91</v>
+        <v>9</v>
       </c>
       <c r="E49" t="n">
-        <v>-2.15</v>
+        <v>-1.55</v>
       </c>
       <c r="F49" t="b">
         <v>0</v>
@@ -3032,16 +3432,16 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>-2.57</v>
+        <v>2.06</v>
       </c>
       <c r="C50" t="n">
-        <v>0.93</v>
+        <v>11.43</v>
       </c>
       <c r="D50" t="n">
-        <v>25.48</v>
+        <v>9</v>
       </c>
       <c r="E50" t="n">
-        <v>-2.27</v>
+        <v>-1.56</v>
       </c>
       <c r="F50" t="b">
         <v>0</v>
@@ -3052,16 +3452,16 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-3.88</v>
+        <v>2.01</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.15</v>
+        <v>10.83</v>
       </c>
       <c r="D51" t="n">
-        <v>25.98</v>
+        <v>9</v>
       </c>
       <c r="E51" t="n">
-        <v>-2.4</v>
+        <v>-1.58</v>
       </c>
       <c r="F51" t="b">
         <v>0</v>
@@ -3072,16 +3472,16 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>-5.35</v>
+        <v>1.95</v>
       </c>
       <c r="C52" t="n">
-        <v>-1.06</v>
+        <v>10.24</v>
       </c>
       <c r="D52" t="n">
-        <v>26.43</v>
+        <v>9</v>
       </c>
       <c r="E52" t="n">
-        <v>-2.53</v>
+        <v>-1.6</v>
       </c>
       <c r="F52" t="b">
         <v>0</v>
@@ -3092,16 +3492,16 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>-6.96</v>
+        <v>1.85</v>
       </c>
       <c r="C53" t="n">
-        <v>-1.79</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>26.82</v>
+        <v>9</v>
       </c>
       <c r="E53" t="n">
-        <v>-2.66</v>
+        <v>-1.63</v>
       </c>
       <c r="F53" t="b">
         <v>0</v>
@@ -3112,16 +3512,16 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>-8.67</v>
+        <v>1.73</v>
       </c>
       <c r="C54" t="n">
-        <v>-2.3</v>
+        <v>9.06</v>
       </c>
       <c r="D54" t="n">
-        <v>27.18</v>
+        <v>9</v>
       </c>
       <c r="E54" t="n">
-        <v>-2.8</v>
+        <v>-1.67</v>
       </c>
       <c r="F54" t="b">
         <v>0</v>
@@ -3132,16 +3532,16 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>-10.46</v>
+        <v>1.59</v>
       </c>
       <c r="C55" t="n">
-        <v>-2.62</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="D55" t="n">
-        <v>27.49</v>
+        <v>9</v>
       </c>
       <c r="E55" t="n">
-        <v>-2.92</v>
+        <v>-1.7</v>
       </c>
       <c r="F55" t="b">
         <v>0</v>
@@ -3152,16 +3552,16 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>-12.28</v>
+        <v>1.42</v>
       </c>
       <c r="C56" t="n">
-        <v>-2.81</v>
+        <v>7.9</v>
       </c>
       <c r="D56" t="n">
-        <v>27.77</v>
+        <v>9</v>
       </c>
       <c r="E56" t="n">
-        <v>-3</v>
+        <v>-1.74</v>
       </c>
       <c r="F56" t="b">
         <v>0</v>
@@ -3172,16 +3572,16 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>-14.13</v>
+        <v>1.23</v>
       </c>
       <c r="C57" t="n">
-        <v>-2.91</v>
+        <v>7.33</v>
       </c>
       <c r="D57" t="n">
-        <v>28.02</v>
+        <v>9</v>
       </c>
       <c r="E57" t="n">
-        <v>-3.07</v>
+        <v>-1.77</v>
       </c>
       <c r="F57" t="b">
         <v>0</v>
@@ -3192,16 +3592,16 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>-15.99</v>
+        <v>1.02</v>
       </c>
       <c r="C58" t="n">
-        <v>-2.94</v>
+        <v>6.77</v>
       </c>
       <c r="D58" t="n">
-        <v>28.24</v>
+        <v>9</v>
       </c>
       <c r="E58" t="n">
-        <v>-3.11</v>
+        <v>-1.81</v>
       </c>
       <c r="F58" t="b">
         <v>0</v>
@@ -3212,16 +3612,16 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>-17.88</v>
+        <v>0.78</v>
       </c>
       <c r="C59" t="n">
-        <v>-2.93</v>
+        <v>6.22</v>
       </c>
       <c r="D59" t="n">
-        <v>28.43</v>
+        <v>9</v>
       </c>
       <c r="E59" t="n">
-        <v>-3.14</v>
+        <v>-1.85</v>
       </c>
       <c r="F59" t="b">
         <v>0</v>
@@ -3232,16 +3632,16 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>-19.77</v>
+        <v>0.52</v>
       </c>
       <c r="C60" t="n">
-        <v>-2.89</v>
+        <v>5.68</v>
       </c>
       <c r="D60" t="n">
-        <v>28.61</v>
+        <v>9</v>
       </c>
       <c r="E60" t="n">
-        <v>-3.16</v>
+        <v>-1.89</v>
       </c>
       <c r="F60" t="b">
         <v>0</v>
@@ -3252,16 +3652,16 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>-21.68</v>
+        <v>0.24</v>
       </c>
       <c r="C61" t="n">
-        <v>-2.83</v>
+        <v>5.15</v>
       </c>
       <c r="D61" t="n">
-        <v>28.76</v>
+        <v>9</v>
       </c>
       <c r="E61" t="n">
-        <v>-3.17</v>
+        <v>-1.93</v>
       </c>
       <c r="F61" t="b">
         <v>0</v>
@@ -3272,16 +3672,16 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>-23.59</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>-2.76</v>
+        <v>4.63</v>
       </c>
       <c r="D62" t="n">
-        <v>28.9</v>
+        <v>9</v>
       </c>
       <c r="E62" t="n">
-        <v>-3.18</v>
+        <v>-1.98</v>
       </c>
       <c r="F62" t="b">
         <v>0</v>
@@ -3292,16 +3692,16 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>-25.52</v>
+        <v>-0.4</v>
       </c>
       <c r="C63" t="n">
-        <v>-2.68</v>
+        <v>4.13</v>
       </c>
       <c r="D63" t="n">
-        <v>29.02</v>
+        <v>9</v>
       </c>
       <c r="E63" t="n">
-        <v>-3.18</v>
+        <v>-2.02</v>
       </c>
       <c r="F63" t="b">
         <v>0</v>
@@ -3312,16 +3712,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-27.45</v>
+        <v>-0.75</v>
       </c>
       <c r="C64" t="n">
-        <v>-2.61</v>
+        <v>3.64</v>
       </c>
       <c r="D64" t="n">
-        <v>29.13</v>
+        <v>9</v>
       </c>
       <c r="E64" t="n">
-        <v>-3.18</v>
+        <v>-2.06</v>
       </c>
       <c r="F64" t="b">
         <v>0</v>
@@ -3332,16 +3732,16 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>-29.39</v>
+        <v>-1.13</v>
       </c>
       <c r="C65" t="n">
-        <v>-2.54</v>
+        <v>3.18</v>
       </c>
       <c r="D65" t="n">
-        <v>29.23</v>
+        <v>9</v>
       </c>
       <c r="E65" t="n">
-        <v>-3.18</v>
+        <v>-2.1</v>
       </c>
       <c r="F65" t="b">
         <v>0</v>
@@ -3352,16 +3752,16 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-31.34</v>
+        <v>-1.52</v>
       </c>
       <c r="C66" t="n">
-        <v>-2.47</v>
+        <v>2.72</v>
       </c>
       <c r="D66" t="n">
-        <v>29.31</v>
+        <v>9</v>
       </c>
       <c r="E66" t="n">
-        <v>-3.18</v>
+        <v>-2.15</v>
       </c>
       <c r="F66" t="b">
         <v>0</v>
@@ -3372,16 +3772,16 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-33.29</v>
+        <v>-1.93</v>
       </c>
       <c r="C67" t="n">
-        <v>-2.41</v>
+        <v>2.29</v>
       </c>
       <c r="D67" t="n">
-        <v>29.39</v>
+        <v>9</v>
       </c>
       <c r="E67" t="n">
-        <v>-3.17</v>
+        <v>-2.19</v>
       </c>
       <c r="F67" t="b">
         <v>0</v>
@@ -3392,16 +3792,16 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-35.25</v>
+        <v>-2.37</v>
       </c>
       <c r="C68" t="n">
-        <v>-2.35</v>
+        <v>1.87</v>
       </c>
       <c r="D68" t="n">
-        <v>29.46</v>
+        <v>9</v>
       </c>
       <c r="E68" t="n">
-        <v>-3.17</v>
+        <v>-2.24</v>
       </c>
       <c r="F68" t="b">
         <v>0</v>
@@ -3412,16 +3812,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-37.22</v>
+        <v>-2.82</v>
       </c>
       <c r="C69" t="n">
-        <v>-2.3</v>
+        <v>1.48</v>
       </c>
       <c r="D69" t="n">
-        <v>29.52</v>
+        <v>9</v>
       </c>
       <c r="E69" t="n">
-        <v>-3.17</v>
+        <v>-2.28</v>
       </c>
       <c r="F69" t="b">
         <v>0</v>
@@ -3432,16 +3832,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-39.18</v>
+        <v>-3.29</v>
       </c>
       <c r="C70" t="n">
-        <v>-2.26</v>
+        <v>1.11</v>
       </c>
       <c r="D70" t="n">
-        <v>29.57</v>
+        <v>9</v>
       </c>
       <c r="E70" t="n">
-        <v>-3.16</v>
+        <v>-2.33</v>
       </c>
       <c r="F70" t="b">
         <v>0</v>
@@ -3452,16 +3852,16 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-41.15</v>
+        <v>-3.78</v>
       </c>
       <c r="C71" t="n">
-        <v>-2.22</v>
+        <v>0.76</v>
       </c>
       <c r="D71" t="n">
-        <v>29.62</v>
+        <v>9</v>
       </c>
       <c r="E71" t="n">
-        <v>-3.16</v>
+        <v>-2.37</v>
       </c>
       <c r="F71" t="b">
         <v>0</v>
@@ -3472,16 +3872,16 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-43.13</v>
+        <v>-4.28</v>
       </c>
       <c r="C72" t="n">
-        <v>-2.19</v>
+        <v>0.43</v>
       </c>
       <c r="D72" t="n">
-        <v>29.66</v>
+        <v>9</v>
       </c>
       <c r="E72" t="n">
-        <v>-3.16</v>
+        <v>-2.42</v>
       </c>
       <c r="F72" t="b">
         <v>0</v>
@@ -3492,16 +3892,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-45.11</v>
+        <v>-4.8</v>
       </c>
       <c r="C73" t="n">
-        <v>-2.16</v>
+        <v>0.13</v>
       </c>
       <c r="D73" t="n">
-        <v>29.7</v>
+        <v>9</v>
       </c>
       <c r="E73" t="n">
-        <v>-3.16</v>
+        <v>-2.46</v>
       </c>
       <c r="F73" t="b">
         <v>0</v>
@@ -3512,16 +3912,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-47.09</v>
+        <v>-5.33</v>
       </c>
       <c r="C74" t="n">
-        <v>-2.13</v>
+        <v>-0.15</v>
       </c>
       <c r="D74" t="n">
-        <v>29.73</v>
+        <v>9</v>
       </c>
       <c r="E74" t="n">
-        <v>-3.15</v>
+        <v>-2.51</v>
       </c>
       <c r="F74" t="b">
         <v>0</v>
@@ -3532,16 +3932,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-49.07</v>
+        <v>-5.87</v>
       </c>
       <c r="C75" t="n">
-        <v>-2.11</v>
+        <v>-0.41</v>
       </c>
       <c r="D75" t="n">
-        <v>29.76</v>
+        <v>9</v>
       </c>
       <c r="E75" t="n">
-        <v>-3.15</v>
+        <v>-2.56</v>
       </c>
       <c r="F75" t="b">
         <v>0</v>
@@ -3552,16 +3952,16 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-51.05</v>
+        <v>-6.43</v>
       </c>
       <c r="C76" t="n">
-        <v>-2.09</v>
+        <v>-0.63</v>
       </c>
       <c r="D76" t="n">
-        <v>29.79</v>
+        <v>9</v>
       </c>
       <c r="E76" t="n">
-        <v>-3.15</v>
+        <v>-2.6</v>
       </c>
       <c r="F76" t="b">
         <v>0</v>
@@ -3572,16 +3972,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-53.04</v>
+        <v>-6.99</v>
       </c>
       <c r="C77" t="n">
-        <v>-2.08</v>
+        <v>-0.83</v>
       </c>
       <c r="D77" t="n">
-        <v>29.81</v>
+        <v>9</v>
       </c>
       <c r="E77" t="n">
-        <v>-3.15</v>
+        <v>-2.65</v>
       </c>
       <c r="F77" t="b">
         <v>0</v>
@@ -3592,16 +3992,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-55.03</v>
+        <v>-7.57</v>
       </c>
       <c r="C78" t="n">
-        <v>-2.07</v>
+        <v>-1.01</v>
       </c>
       <c r="D78" t="n">
-        <v>29.83</v>
+        <v>9</v>
       </c>
       <c r="E78" t="n">
-        <v>-3.15</v>
+        <v>-2.7</v>
       </c>
       <c r="F78" t="b">
         <v>0</v>
@@ -3612,19 +4012,419 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-57.01</v>
+        <v>-8.15</v>
       </c>
       <c r="C79" t="n">
-        <v>-2.05</v>
+        <v>-1.16</v>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E79" t="n">
-        <v>-3.15</v>
+        <v>-2.74</v>
       </c>
       <c r="F79" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>-8.74</v>
+      </c>
+      <c r="C80" t="n">
+        <v>-1.28</v>
+      </c>
+      <c r="D80" t="n">
+        <v>9</v>
+      </c>
+      <c r="E80" t="n">
+        <v>-2.79</v>
+      </c>
+      <c r="F80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>-9.34</v>
+      </c>
+      <c r="C81" t="n">
+        <v>-1.3</v>
+      </c>
+      <c r="D81" t="n">
+        <v>9</v>
+      </c>
+      <c r="E81" t="n">
+        <v>-2.86</v>
+      </c>
+      <c r="F81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>-9.94</v>
+      </c>
+      <c r="C82" t="n">
+        <v>-1.35</v>
+      </c>
+      <c r="D82" t="n">
+        <v>9</v>
+      </c>
+      <c r="E82" t="n">
+        <v>-2.91</v>
+      </c>
+      <c r="F82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>-10.53</v>
+      </c>
+      <c r="C83" t="n">
+        <v>-1.39</v>
+      </c>
+      <c r="D83" t="n">
+        <v>9</v>
+      </c>
+      <c r="E83" t="n">
+        <v>-2.95</v>
+      </c>
+      <c r="F83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>-11.13</v>
+      </c>
+      <c r="C84" t="n">
+        <v>-1.44</v>
+      </c>
+      <c r="D84" t="n">
+        <v>9</v>
+      </c>
+      <c r="E84" t="n">
+        <v>-2.98</v>
+      </c>
+      <c r="F84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>-11.73</v>
+      </c>
+      <c r="C85" t="n">
+        <v>-1.49</v>
+      </c>
+      <c r="D85" t="n">
+        <v>9</v>
+      </c>
+      <c r="E85" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>-12.33</v>
+      </c>
+      <c r="C86" t="n">
+        <v>-1.53</v>
+      </c>
+      <c r="D86" t="n">
+        <v>9</v>
+      </c>
+      <c r="E86" t="n">
+        <v>-3.01</v>
+      </c>
+      <c r="F86" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>-12.93</v>
+      </c>
+      <c r="C87" t="n">
+        <v>-1.58</v>
+      </c>
+      <c r="D87" t="n">
+        <v>9</v>
+      </c>
+      <c r="E87" t="n">
+        <v>-3.03</v>
+      </c>
+      <c r="F87" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>-13.53</v>
+      </c>
+      <c r="C88" t="n">
+        <v>-1.61</v>
+      </c>
+      <c r="D88" t="n">
+        <v>9</v>
+      </c>
+      <c r="E88" t="n">
+        <v>-3.04</v>
+      </c>
+      <c r="F88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>-14.12</v>
+      </c>
+      <c r="C89" t="n">
+        <v>-1.65</v>
+      </c>
+      <c r="D89" t="n">
+        <v>9</v>
+      </c>
+      <c r="E89" t="n">
+        <v>-3.05</v>
+      </c>
+      <c r="F89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>-14.72</v>
+      </c>
+      <c r="C90" t="n">
+        <v>-1.68</v>
+      </c>
+      <c r="D90" t="n">
+        <v>9</v>
+      </c>
+      <c r="E90" t="n">
+        <v>-3.06</v>
+      </c>
+      <c r="F90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>-15.32</v>
+      </c>
+      <c r="C91" t="n">
+        <v>-1.71</v>
+      </c>
+      <c r="D91" t="n">
+        <v>9</v>
+      </c>
+      <c r="E91" t="n">
+        <v>-3.07</v>
+      </c>
+      <c r="F91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>-15.92</v>
+      </c>
+      <c r="C92" t="n">
+        <v>-1.74</v>
+      </c>
+      <c r="D92" t="n">
+        <v>9</v>
+      </c>
+      <c r="E92" t="n">
+        <v>-3.07</v>
+      </c>
+      <c r="F92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>-16.52</v>
+      </c>
+      <c r="C93" t="n">
+        <v>-1.76</v>
+      </c>
+      <c r="D93" t="n">
+        <v>9</v>
+      </c>
+      <c r="E93" t="n">
+        <v>-3.08</v>
+      </c>
+      <c r="F93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>-17.12</v>
+      </c>
+      <c r="C94" t="n">
+        <v>-1.79</v>
+      </c>
+      <c r="D94" t="n">
+        <v>9</v>
+      </c>
+      <c r="E94" t="n">
+        <v>-3.09</v>
+      </c>
+      <c r="F94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>-17.72</v>
+      </c>
+      <c r="C95" t="n">
+        <v>-1.81</v>
+      </c>
+      <c r="D95" t="n">
+        <v>9</v>
+      </c>
+      <c r="E95" t="n">
+        <v>-3.09</v>
+      </c>
+      <c r="F95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>-18.32</v>
+      </c>
+      <c r="C96" t="n">
+        <v>-1.82</v>
+      </c>
+      <c r="D96" t="n">
+        <v>9</v>
+      </c>
+      <c r="E96" t="n">
+        <v>-3.1</v>
+      </c>
+      <c r="F96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>-18.92</v>
+      </c>
+      <c r="C97" t="n">
+        <v>-1.84</v>
+      </c>
+      <c r="D97" t="n">
+        <v>9</v>
+      </c>
+      <c r="E97" t="n">
+        <v>-3.1</v>
+      </c>
+      <c r="F97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>-19.52</v>
+      </c>
+      <c r="C98" t="n">
+        <v>-1.86</v>
+      </c>
+      <c r="D98" t="n">
+        <v>9</v>
+      </c>
+      <c r="E98" t="n">
+        <v>-3.1</v>
+      </c>
+      <c r="F98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>-20.12</v>
+      </c>
+      <c r="C99" t="n">
+        <v>-1.87</v>
+      </c>
+      <c r="D99" t="n">
+        <v>9</v>
+      </c>
+      <c r="E99" t="n">
+        <v>-3.11</v>
+      </c>
+      <c r="F99" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3638,7 +4438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F79"/>
+  <dimension ref="A1:F99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3683,13 +4483,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-55.27</v>
+        <v>-49.36</v>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>11.11</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="E2" t="n">
         <v>-0</v>
@@ -3703,13 +4503,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-54.53</v>
+        <v>-48.7</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>12.1</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="E3" t="n">
         <v>-0</v>
@@ -3723,13 +4523,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-53.72</v>
+        <v>-48.05</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>12.98</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E4" t="n">
         <v>-0</v>
@@ -3743,13 +4543,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-52.86</v>
+        <v>-47.4</v>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>13.76</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="E5" t="n">
         <v>-0</v>
@@ -3763,13 +4563,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-51.94</v>
+        <v>-46.76</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>14.45</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="E6" t="n">
         <v>-0</v>
@@ -3783,13 +4583,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-50.97</v>
+        <v>-46.13</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>15.07</v>
+        <v>9.49</v>
       </c>
       <c r="E7" t="n">
         <v>-0</v>
@@ -3803,13 +4603,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-49.97</v>
+        <v>-45.49</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>15.62</v>
+        <v>9.44</v>
       </c>
       <c r="E8" t="n">
         <v>-0</v>
@@ -3823,13 +4623,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-48.93</v>
+        <v>-44.86</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>16.1</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="E9" t="n">
         <v>-0</v>
@@ -3843,13 +4643,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-47.86</v>
+        <v>-44.24</v>
       </c>
       <c r="C10" t="n">
         <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>16.54</v>
+        <v>9.35</v>
       </c>
       <c r="E10" t="n">
         <v>-0</v>
@@ -3863,13 +4663,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-46.75</v>
+        <v>-43.61</v>
       </c>
       <c r="C11" t="n">
         <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>16.92</v>
+        <v>9.31</v>
       </c>
       <c r="E11" t="n">
         <v>-0</v>
@@ -3883,13 +4683,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-45.63</v>
+        <v>-42.99</v>
       </c>
       <c r="C12" t="n">
         <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>17.26</v>
+        <v>9.27</v>
       </c>
       <c r="E12" t="n">
         <v>-0</v>
@@ -3903,13 +4703,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-44.47</v>
+        <v>-42.38</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>17.57</v>
+        <v>9.24</v>
       </c>
       <c r="E13" t="n">
         <v>-0</v>
@@ -3923,13 +4723,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-43.3</v>
+        <v>-41.76</v>
       </c>
       <c r="C14" t="n">
         <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>17.84</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="E14" t="n">
         <v>-0</v>
@@ -3943,13 +4743,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-42.11</v>
+        <v>-41.14</v>
       </c>
       <c r="C15" t="n">
         <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>18.08</v>
+        <v>9.19</v>
       </c>
       <c r="E15" t="n">
         <v>-0</v>
@@ -3963,13 +4763,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-40.91</v>
+        <v>-40.53</v>
       </c>
       <c r="C16" t="n">
         <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>18.29</v>
+        <v>9.17</v>
       </c>
       <c r="E16" t="n">
         <v>-0</v>
@@ -3983,13 +4783,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-39.69</v>
+        <v>-39.92</v>
       </c>
       <c r="C17" t="n">
         <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>18.48</v>
+        <v>9.15</v>
       </c>
       <c r="E17" t="n">
         <v>-0</v>
@@ -4003,13 +4803,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-38.46</v>
+        <v>-39.31</v>
       </c>
       <c r="C18" t="n">
         <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>18.65</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="E18" t="n">
         <v>-0</v>
@@ -4023,13 +4823,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-37.21</v>
+        <v>-38.7</v>
       </c>
       <c r="C19" t="n">
         <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>18.8</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="E19" t="n">
         <v>-0</v>
@@ -4043,13 +4843,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-35.96</v>
+        <v>-38.09</v>
       </c>
       <c r="C20" t="n">
         <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>18.93</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="E20" t="n">
         <v>-0</v>
@@ -4063,13 +4863,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-34.7</v>
+        <v>-37.49</v>
       </c>
       <c r="C21" t="n">
         <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>19.05</v>
+        <v>9.09</v>
       </c>
       <c r="E21" t="n">
         <v>-0</v>
@@ -4083,13 +4883,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-33.43</v>
+        <v>-36.88</v>
       </c>
       <c r="C22" t="n">
         <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>19.16</v>
+        <v>9.08</v>
       </c>
       <c r="E22" t="n">
         <v>-0</v>
@@ -4103,13 +4903,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-32.15</v>
+        <v>-36.27</v>
       </c>
       <c r="C23" t="n">
         <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>19.25</v>
+        <v>9.07</v>
       </c>
       <c r="E23" t="n">
         <v>-0</v>
@@ -4123,13 +4923,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-30.87</v>
+        <v>-35.67</v>
       </c>
       <c r="C24" t="n">
         <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>19.33</v>
+        <v>9.07</v>
       </c>
       <c r="E24" t="n">
         <v>-0</v>
@@ -4143,13 +4943,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-29.58</v>
+        <v>-35.06</v>
       </c>
       <c r="C25" t="n">
         <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>19.41</v>
+        <v>9.06</v>
       </c>
       <c r="E25" t="n">
         <v>-0</v>
@@ -4163,13 +4963,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-28.29</v>
+        <v>-34.46</v>
       </c>
       <c r="C26" t="n">
         <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>19.47</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="E26" t="n">
         <v>-0</v>
@@ -4183,13 +4983,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-26.99</v>
+        <v>-33.86</v>
       </c>
       <c r="C27" t="n">
         <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>19.53</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="E27" t="n">
         <v>-0</v>
@@ -4203,13 +5003,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-25.68</v>
+        <v>-33.25</v>
       </c>
       <c r="C28" t="n">
         <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>19.58</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="E28" t="n">
         <v>-0</v>
@@ -4223,13 +5023,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-24.38</v>
+        <v>-32.65</v>
       </c>
       <c r="C29" t="n">
         <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>19.63</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="E29" t="n">
         <v>-0</v>
@@ -4243,13 +5043,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-23.07</v>
+        <v>-32.05</v>
       </c>
       <c r="C30" t="n">
         <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>19.67</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="E30" t="n">
         <v>-0</v>
@@ -4263,13 +5063,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-21.76</v>
+        <v>-31.45</v>
       </c>
       <c r="C31" t="n">
         <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>19.71</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="E31" t="n">
         <v>-0</v>
@@ -4283,13 +5083,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-20.45</v>
+        <v>-30.84</v>
       </c>
       <c r="C32" t="n">
         <v>2</v>
       </c>
       <c r="D32" t="n">
-        <v>19.74</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="E32" t="n">
         <v>-0</v>
@@ -4303,13 +5103,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-19.13</v>
+        <v>-30.24</v>
       </c>
       <c r="C33" t="n">
         <v>2</v>
       </c>
       <c r="D33" t="n">
-        <v>20.32</v>
+        <v>8.52</v>
       </c>
       <c r="E33" t="n">
         <v>-0</v>
@@ -4323,13 +5123,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-17.77</v>
+        <v>-29.67</v>
       </c>
       <c r="C34" t="n">
         <v>2</v>
       </c>
       <c r="D34" t="n">
-        <v>20.84</v>
+        <v>8.08</v>
       </c>
       <c r="E34" t="n">
         <v>-0</v>
@@ -4343,13 +5143,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-16.38</v>
+        <v>-29.14</v>
       </c>
       <c r="C35" t="n">
         <v>2</v>
       </c>
       <c r="D35" t="n">
-        <v>21.31</v>
+        <v>7.68</v>
       </c>
       <c r="E35" t="n">
         <v>-0</v>
@@ -4363,13 +5163,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-14.96</v>
+        <v>-28.62</v>
       </c>
       <c r="C36" t="n">
         <v>2</v>
       </c>
       <c r="D36" t="n">
-        <v>21.72</v>
+        <v>7.33</v>
       </c>
       <c r="E36" t="n">
         <v>-0</v>
@@ -4383,13 +5183,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-13.52</v>
+        <v>-28.14</v>
       </c>
       <c r="C37" t="n">
         <v>2</v>
       </c>
       <c r="D37" t="n">
-        <v>22.08</v>
+        <v>7.01</v>
       </c>
       <c r="E37" t="n">
         <v>-0</v>
@@ -4403,13 +5203,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-12.04</v>
+        <v>-27.67</v>
       </c>
       <c r="C38" t="n">
         <v>2</v>
       </c>
       <c r="D38" t="n">
-        <v>22.41</v>
+        <v>6.73</v>
       </c>
       <c r="E38" t="n">
         <v>-0</v>
@@ -4423,16 +5223,16 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-10.55</v>
+        <v>-27.22</v>
       </c>
       <c r="C39" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>22.69</v>
+        <v>5.98</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.03</v>
+        <v>-0</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
@@ -4443,16 +5243,16 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-9.050000000000001</v>
+        <v>-26.82</v>
       </c>
       <c r="C40" t="n">
-        <v>1.73</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>23.51</v>
+        <v>5.32</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.09</v>
+        <v>-0</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
@@ -4463,16 +5263,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-7.52</v>
+        <v>-26.47</v>
       </c>
       <c r="C41" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
-        <v>24.23</v>
+        <v>4.73</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.17</v>
+        <v>-0</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
@@ -4483,16 +5283,16 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-5.98</v>
+        <v>-26.15</v>
       </c>
       <c r="C42" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
-        <v>24.87</v>
+        <v>4.2</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.26</v>
+        <v>-0</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>
@@ -4503,16 +5303,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-4.47</v>
+        <v>-25.87</v>
       </c>
       <c r="C43" t="n">
-        <v>0.21</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
-        <v>25.44</v>
+        <v>3.74</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.37</v>
+        <v>-0</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
@@ -4523,16 +5323,16 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-3.02</v>
+        <v>-25.62</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.66</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
-        <v>25.95</v>
+        <v>3.32</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.49</v>
+        <v>-0</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
@@ -4543,16 +5343,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-1.66</v>
+        <v>-25.4</v>
       </c>
       <c r="C45" t="n">
-        <v>-1.73</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
-        <v>26.4</v>
+        <v>2.95</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.61</v>
+        <v>-0</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>
@@ -4563,16 +5363,16 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.43</v>
+        <v>-25.2</v>
       </c>
       <c r="C46" t="n">
-        <v>-2.99</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
-        <v>26.8</v>
+        <v>2.62</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.74</v>
+        <v>-0</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
@@ -4583,16 +5383,16 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.63</v>
+        <v>-25.03</v>
       </c>
       <c r="C47" t="n">
-        <v>-4.43</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
-        <v>27.15</v>
+        <v>2.33</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.88</v>
+        <v>-0</v>
       </c>
       <c r="F47" t="b">
         <v>0</v>
@@ -4603,16 +5403,16 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1.51</v>
+        <v>-24.87</v>
       </c>
       <c r="C48" t="n">
-        <v>-6.01</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
-        <v>27.47</v>
+        <v>2.07</v>
       </c>
       <c r="E48" t="n">
-        <v>-1.01</v>
+        <v>-0</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
@@ -4623,16 +5423,16 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>2.16</v>
+        <v>-24.73</v>
       </c>
       <c r="C49" t="n">
-        <v>-7.72</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
-        <v>27.75</v>
+        <v>1.84</v>
       </c>
       <c r="E49" t="n">
-        <v>-1.15</v>
+        <v>-0</v>
       </c>
       <c r="F49" t="b">
         <v>0</v>
@@ -4643,16 +5443,16 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>2.58</v>
+        <v>-24.61</v>
       </c>
       <c r="C50" t="n">
-        <v>-9.52</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
-        <v>28</v>
+        <v>1.64</v>
       </c>
       <c r="E50" t="n">
-        <v>-1.29</v>
+        <v>-0</v>
       </c>
       <c r="F50" t="b">
         <v>0</v>
@@ -4663,16 +5463,16 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>2.84</v>
+        <v>-24.5</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.37</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
-        <v>28.22</v>
+        <v>1.46</v>
       </c>
       <c r="E51" t="n">
-        <v>-1.4</v>
+        <v>-0</v>
       </c>
       <c r="F51" t="b">
         <v>0</v>
@@ -4683,16 +5483,16 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>2.98</v>
+        <v>-24.41</v>
       </c>
       <c r="C52" t="n">
-        <v>-13.25</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
-        <v>28.42</v>
+        <v>1.29</v>
       </c>
       <c r="E52" t="n">
-        <v>-1.47</v>
+        <v>-0</v>
       </c>
       <c r="F52" t="b">
         <v>0</v>
@@ -4703,16 +5503,16 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>3.04</v>
+        <v>-24.32</v>
       </c>
       <c r="C53" t="n">
-        <v>-15.14</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
-        <v>28.6</v>
+        <v>1.15</v>
       </c>
       <c r="E53" t="n">
-        <v>-1.52</v>
+        <v>-0</v>
       </c>
       <c r="F53" t="b">
         <v>0</v>
@@ -4723,16 +5523,16 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>3.04</v>
+        <v>-24.24</v>
       </c>
       <c r="C54" t="n">
-        <v>-17.05</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
-        <v>28.75</v>
+        <v>1.02</v>
       </c>
       <c r="E54" t="n">
-        <v>-1.56</v>
+        <v>-0</v>
       </c>
       <c r="F54" t="b">
         <v>0</v>
@@ -4743,16 +5543,16 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>3</v>
+        <v>-24.17</v>
       </c>
       <c r="C55" t="n">
-        <v>-18.96</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
-        <v>28.89</v>
+        <v>0.91</v>
       </c>
       <c r="E55" t="n">
-        <v>-1.58</v>
+        <v>-0</v>
       </c>
       <c r="F55" t="b">
         <v>0</v>
@@ -4763,16 +5563,16 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>2.94</v>
+        <v>-24.11</v>
       </c>
       <c r="C56" t="n">
-        <v>-20.89</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
-        <v>29.01</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E56" t="n">
-        <v>-1.6</v>
+        <v>-0</v>
       </c>
       <c r="F56" t="b">
         <v>0</v>
@@ -4783,16 +5583,16 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>2.86</v>
+        <v>-24.06</v>
       </c>
       <c r="C57" t="n">
-        <v>-22.82</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
-        <v>29.12</v>
+        <v>0.72</v>
       </c>
       <c r="E57" t="n">
-        <v>-1.61</v>
+        <v>-0</v>
       </c>
       <c r="F57" t="b">
         <v>0</v>
@@ -4803,16 +5603,16 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>2.78</v>
+        <v>-24.01</v>
       </c>
       <c r="C58" t="n">
-        <v>-24.76</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
-        <v>29.22</v>
+        <v>0.64</v>
       </c>
       <c r="E58" t="n">
-        <v>-1.61</v>
+        <v>-0</v>
       </c>
       <c r="F58" t="b">
         <v>0</v>
@@ -4823,16 +5623,16 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>2.7</v>
+        <v>-23.97</v>
       </c>
       <c r="C59" t="n">
-        <v>-26.71</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
-        <v>29.31</v>
+        <v>0.57</v>
       </c>
       <c r="E59" t="n">
-        <v>-1.61</v>
+        <v>-0</v>
       </c>
       <c r="F59" t="b">
         <v>0</v>
@@ -4843,16 +5643,16 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>2.62</v>
+        <v>-23.93</v>
       </c>
       <c r="C60" t="n">
-        <v>-28.66</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
-        <v>29.38</v>
+        <v>0.5</v>
       </c>
       <c r="E60" t="n">
-        <v>-1.61</v>
+        <v>-0</v>
       </c>
       <c r="F60" t="b">
         <v>0</v>
@@ -4863,16 +5663,16 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>2.54</v>
+        <v>-23.9</v>
       </c>
       <c r="C61" t="n">
-        <v>-30.62</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
-        <v>29.45</v>
+        <v>0.45</v>
       </c>
       <c r="E61" t="n">
-        <v>-1.61</v>
+        <v>-0</v>
       </c>
       <c r="F61" t="b">
         <v>0</v>
@@ -4883,16 +5683,16 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>2.47</v>
+        <v>-23.87</v>
       </c>
       <c r="C62" t="n">
-        <v>-32.58</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
-        <v>29.51</v>
+        <v>0.4</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.61</v>
+        <v>-0</v>
       </c>
       <c r="F62" t="b">
         <v>0</v>
@@ -4903,16 +5703,16 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>2.41</v>
+        <v>-23.84</v>
       </c>
       <c r="C63" t="n">
-        <v>-34.55</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
-        <v>29.57</v>
+        <v>0.35</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.6</v>
+        <v>-0</v>
       </c>
       <c r="F63" t="b">
         <v>0</v>
@@ -4923,16 +5723,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>2.35</v>
+        <v>-23.82</v>
       </c>
       <c r="C64" t="n">
-        <v>-36.52</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
-        <v>29.62</v>
+        <v>0.31</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.6</v>
+        <v>-0</v>
       </c>
       <c r="F64" t="b">
         <v>0</v>
@@ -4943,16 +5743,16 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>2.3</v>
+        <v>-23.8</v>
       </c>
       <c r="C65" t="n">
-        <v>-38.49</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
-        <v>29.66</v>
+        <v>0.28</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.6</v>
+        <v>0</v>
       </c>
       <c r="F65" t="b">
         <v>0</v>
@@ -4963,16 +5763,16 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>2.26</v>
+        <v>-23.78</v>
       </c>
       <c r="C66" t="n">
-        <v>-40.47</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
-        <v>29.7</v>
+        <v>0.25</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.59</v>
+        <v>-0</v>
       </c>
       <c r="F66" t="b">
         <v>0</v>
@@ -4983,16 +5783,16 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>2.22</v>
+        <v>-23.76</v>
       </c>
       <c r="C67" t="n">
-        <v>-42.45</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
-        <v>29.73</v>
+        <v>0.22</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.59</v>
+        <v>0</v>
       </c>
       <c r="F67" t="b">
         <v>0</v>
@@ -5003,16 +5803,16 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>2.18</v>
+        <v>-23.75</v>
       </c>
       <c r="C68" t="n">
-        <v>-44.43</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
-        <v>29.76</v>
+        <v>0.2</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.59</v>
+        <v>-0</v>
       </c>
       <c r="F68" t="b">
         <v>0</v>
@@ -5023,16 +5823,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>2.16</v>
+        <v>-23.73</v>
       </c>
       <c r="C69" t="n">
-        <v>-46.41</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
-        <v>29.79</v>
+        <v>0.17</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.59</v>
+        <v>0</v>
       </c>
       <c r="F69" t="b">
         <v>0</v>
@@ -5043,16 +5843,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>2.13</v>
+        <v>-23.72</v>
       </c>
       <c r="C70" t="n">
-        <v>-48.4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
-        <v>29.81</v>
+        <v>0.16</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.58</v>
+        <v>-0</v>
       </c>
       <c r="F70" t="b">
         <v>0</v>
@@ -5063,16 +5863,16 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>2.11</v>
+        <v>-23.71</v>
       </c>
       <c r="C71" t="n">
-        <v>-50.39</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
-        <v>29.83</v>
+        <v>0.14</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.58</v>
+        <v>0</v>
       </c>
       <c r="F71" t="b">
         <v>0</v>
@@ -5083,16 +5883,16 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>2.09</v>
+        <v>-23.7</v>
       </c>
       <c r="C72" t="n">
-        <v>-52.37</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
-        <v>29.85</v>
+        <v>0.12</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.58</v>
+        <v>-0</v>
       </c>
       <c r="F72" t="b">
         <v>0</v>
@@ -5103,16 +5903,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>2.08</v>
+        <v>-23.69</v>
       </c>
       <c r="C73" t="n">
-        <v>-54.36</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
-        <v>29.87</v>
+        <v>0.11</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.58</v>
+        <v>0</v>
       </c>
       <c r="F73" t="b">
         <v>0</v>
@@ -5123,19 +5923,19 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>2.06</v>
+        <v>-23.69</v>
       </c>
       <c r="C74" t="n">
-        <v>-56.36</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.58</v>
+        <v>-0</v>
       </c>
       <c r="F74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -5143,19 +5943,19 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>2.06</v>
+        <v>-23.68</v>
       </c>
       <c r="C75" t="n">
-        <v>-56.36</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.58</v>
+        <v>0</v>
       </c>
       <c r="F75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -5163,19 +5963,19 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>2.06</v>
+        <v>-23.68</v>
       </c>
       <c r="C76" t="n">
-        <v>-56.36</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.58</v>
+        <v>-0</v>
       </c>
       <c r="F76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -5183,19 +5983,19 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>2.06</v>
+        <v>-23.67</v>
       </c>
       <c r="C77" t="n">
-        <v>-56.36</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.58</v>
+        <v>0</v>
       </c>
       <c r="F77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -5203,19 +6003,19 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>2.06</v>
+        <v>-23.67</v>
       </c>
       <c r="C78" t="n">
-        <v>-56.36</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.58</v>
+        <v>-0</v>
       </c>
       <c r="F78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -5223,19 +6023,419 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>2.06</v>
+        <v>-23.66</v>
       </c>
       <c r="C79" t="n">
-        <v>-56.36</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.58</v>
+        <v>0</v>
       </c>
       <c r="F79" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>-23.66</v>
+      </c>
+      <c r="C80" t="n">
+        <v>2</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E80" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>-23.66</v>
+      </c>
+      <c r="C81" t="n">
+        <v>2</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>-23.66</v>
+      </c>
+      <c r="C82" t="n">
+        <v>2</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E82" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>-23.65</v>
+      </c>
+      <c r="C83" t="n">
+        <v>2</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>-23.65</v>
+      </c>
+      <c r="C84" t="n">
+        <v>2</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E84" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>-23.65</v>
+      </c>
+      <c r="C85" t="n">
+        <v>2</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>-23.65</v>
+      </c>
+      <c r="C86" t="n">
+        <v>2</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0</v>
+      </c>
+      <c r="F86" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>-23.65</v>
+      </c>
+      <c r="C87" t="n">
+        <v>2</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="E87" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F87" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>-23.61</v>
+      </c>
+      <c r="C88" t="n">
+        <v>2</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>-23.55</v>
+      </c>
+      <c r="C89" t="n">
+        <v>2</v>
+      </c>
+      <c r="D89" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="E89" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>-23.46</v>
+      </c>
+      <c r="C90" t="n">
+        <v>2</v>
+      </c>
+      <c r="D90" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>-23.35</v>
+      </c>
+      <c r="C91" t="n">
+        <v>2</v>
+      </c>
+      <c r="D91" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="E91" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>-23.21</v>
+      </c>
+      <c r="C92" t="n">
+        <v>2</v>
+      </c>
+      <c r="D92" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="E92" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>-23.06</v>
+      </c>
+      <c r="C93" t="n">
+        <v>2</v>
+      </c>
+      <c r="D93" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="E93" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>-22.86</v>
+      </c>
+      <c r="C94" t="n">
+        <v>2</v>
+      </c>
+      <c r="D94" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="E94" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>-22.61</v>
+      </c>
+      <c r="C95" t="n">
+        <v>2</v>
+      </c>
+      <c r="D95" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="E95" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>-22.32</v>
+      </c>
+      <c r="C96" t="n">
+        <v>2</v>
+      </c>
+      <c r="D96" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="E96" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>-22</v>
+      </c>
+      <c r="C97" t="n">
+        <v>2</v>
+      </c>
+      <c r="D97" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="E97" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>-21.65</v>
+      </c>
+      <c r="C98" t="n">
+        <v>2</v>
+      </c>
+      <c r="D98" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="E98" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>-21.27</v>
+      </c>
+      <c r="C99" t="n">
+        <v>2</v>
+      </c>
+      <c r="D99" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="E99" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F99" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5249,7 +6449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F79"/>
+  <dimension ref="A1:F99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5297,10 +6497,10 @@
         <v>-2</v>
       </c>
       <c r="C2" t="n">
-        <v>-53.86</v>
+        <v>-40.99</v>
       </c>
       <c r="D2" t="n">
-        <v>11.67</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="E2" t="n">
         <v>1.57</v>
@@ -5317,10 +6517,10 @@
         <v>-2</v>
       </c>
       <c r="C3" t="n">
-        <v>-53.08</v>
+        <v>-40.33</v>
       </c>
       <c r="D3" t="n">
-        <v>13.15</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="E3" t="n">
         <v>1.57</v>
@@ -5337,10 +6537,10 @@
         <v>-2</v>
       </c>
       <c r="C4" t="n">
-        <v>-52.21</v>
+        <v>-39.68</v>
       </c>
       <c r="D4" t="n">
-        <v>14.47</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E4" t="n">
         <v>1.57</v>
@@ -5357,10 +6557,10 @@
         <v>-2</v>
       </c>
       <c r="C5" t="n">
-        <v>-51.24</v>
+        <v>-39.03</v>
       </c>
       <c r="D5" t="n">
-        <v>15.64</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="E5" t="n">
         <v>1.57</v>
@@ -5377,10 +6577,10 @@
         <v>-2</v>
       </c>
       <c r="C6" t="n">
-        <v>-50.2</v>
+        <v>-38.39</v>
       </c>
       <c r="D6" t="n">
-        <v>16.68</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="E6" t="n">
         <v>1.57</v>
@@ -5397,10 +6597,10 @@
         <v>-2</v>
       </c>
       <c r="C7" t="n">
-        <v>-49.09</v>
+        <v>-37.75</v>
       </c>
       <c r="D7" t="n">
-        <v>17.6</v>
+        <v>9.49</v>
       </c>
       <c r="E7" t="n">
         <v>1.57</v>
@@ -5417,10 +6617,10 @@
         <v>-2</v>
       </c>
       <c r="C8" t="n">
-        <v>-47.92</v>
+        <v>-37.12</v>
       </c>
       <c r="D8" t="n">
-        <v>18.42</v>
+        <v>9.44</v>
       </c>
       <c r="E8" t="n">
         <v>1.57</v>
@@ -5437,10 +6637,10 @@
         <v>-2</v>
       </c>
       <c r="C9" t="n">
-        <v>-46.69</v>
+        <v>-36.49</v>
       </c>
       <c r="D9" t="n">
-        <v>19.15</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="E9" t="n">
         <v>1.57</v>
@@ -5457,10 +6657,10 @@
         <v>-2</v>
       </c>
       <c r="C10" t="n">
-        <v>-45.41</v>
+        <v>-35.86</v>
       </c>
       <c r="D10" t="n">
-        <v>19.8</v>
+        <v>9.35</v>
       </c>
       <c r="E10" t="n">
         <v>1.57</v>
@@ -5477,10 +6677,10 @@
         <v>-2</v>
       </c>
       <c r="C11" t="n">
-        <v>-44.09</v>
+        <v>-35.24</v>
       </c>
       <c r="D11" t="n">
-        <v>20.38</v>
+        <v>9.31</v>
       </c>
       <c r="E11" t="n">
         <v>1.57</v>
@@ -5497,10 +6697,10 @@
         <v>-2</v>
       </c>
       <c r="C12" t="n">
-        <v>-42.73</v>
+        <v>-34.62</v>
       </c>
       <c r="D12" t="n">
-        <v>20.89</v>
+        <v>9.27</v>
       </c>
       <c r="E12" t="n">
         <v>1.57</v>
@@ -5517,10 +6717,10 @@
         <v>-2</v>
       </c>
       <c r="C13" t="n">
-        <v>-41.34</v>
+        <v>-34</v>
       </c>
       <c r="D13" t="n">
-        <v>21.35</v>
+        <v>9.24</v>
       </c>
       <c r="E13" t="n">
         <v>1.57</v>
@@ -5537,10 +6737,10 @@
         <v>-2</v>
       </c>
       <c r="C14" t="n">
-        <v>-39.92</v>
+        <v>-33.38</v>
       </c>
       <c r="D14" t="n">
-        <v>21.76</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="E14" t="n">
         <v>1.57</v>
@@ -5557,10 +6757,10 @@
         <v>-2</v>
       </c>
       <c r="C15" t="n">
-        <v>-38.46</v>
+        <v>-32.77</v>
       </c>
       <c r="D15" t="n">
-        <v>22.12</v>
+        <v>9.19</v>
       </c>
       <c r="E15" t="n">
         <v>1.57</v>
@@ -5577,10 +6777,10 @@
         <v>-2</v>
       </c>
       <c r="C16" t="n">
-        <v>-36.99</v>
+        <v>-32.16</v>
       </c>
       <c r="D16" t="n">
-        <v>22.44</v>
+        <v>9.17</v>
       </c>
       <c r="E16" t="n">
         <v>1.57</v>
@@ -5597,10 +6797,10 @@
         <v>-2</v>
       </c>
       <c r="C17" t="n">
-        <v>-35.49</v>
+        <v>-31.54</v>
       </c>
       <c r="D17" t="n">
-        <v>22.72</v>
+        <v>9.15</v>
       </c>
       <c r="E17" t="n">
         <v>1.57</v>
@@ -5617,10 +6817,10 @@
         <v>-2</v>
       </c>
       <c r="C18" t="n">
-        <v>-33.98</v>
+        <v>-30.93</v>
       </c>
       <c r="D18" t="n">
-        <v>23.53</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="E18" t="n">
         <v>1.57</v>
@@ -5637,10 +6837,10 @@
         <v>-2</v>
       </c>
       <c r="C19" t="n">
-        <v>-32.41</v>
+        <v>-30.33</v>
       </c>
       <c r="D19" t="n">
-        <v>24.25</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="E19" t="n">
         <v>1.57</v>
@@ -5657,10 +6857,10 @@
         <v>-2</v>
       </c>
       <c r="C20" t="n">
-        <v>-30.79</v>
+        <v>-29.75</v>
       </c>
       <c r="D20" t="n">
-        <v>24.89</v>
+        <v>8.16</v>
       </c>
       <c r="E20" t="n">
         <v>1.57</v>
@@ -5677,10 +6877,10 @@
         <v>-2</v>
       </c>
       <c r="C21" t="n">
-        <v>-29.14</v>
+        <v>-29.21</v>
       </c>
       <c r="D21" t="n">
-        <v>25.46</v>
+        <v>7.76</v>
       </c>
       <c r="E21" t="n">
         <v>1.57</v>
@@ -5697,10 +6897,10 @@
         <v>-2</v>
       </c>
       <c r="C22" t="n">
-        <v>-27.44</v>
+        <v>-28.69</v>
       </c>
       <c r="D22" t="n">
-        <v>25.96</v>
+        <v>7.39</v>
       </c>
       <c r="E22" t="n">
         <v>1.57</v>
@@ -5717,10 +6917,10 @@
         <v>-2</v>
       </c>
       <c r="C23" t="n">
-        <v>-25.71</v>
+        <v>-28.2</v>
       </c>
       <c r="D23" t="n">
-        <v>26.41</v>
+        <v>7.07</v>
       </c>
       <c r="E23" t="n">
         <v>1.57</v>
@@ -5737,10 +6937,10 @@
         <v>-2</v>
       </c>
       <c r="C24" t="n">
-        <v>-23.95</v>
+        <v>-27.73</v>
       </c>
       <c r="D24" t="n">
-        <v>26.81</v>
+        <v>6.79</v>
       </c>
       <c r="E24" t="n">
         <v>1.57</v>
@@ -5757,10 +6957,10 @@
         <v>-2</v>
       </c>
       <c r="C25" t="n">
-        <v>-22.16</v>
+        <v>-27.27</v>
       </c>
       <c r="D25" t="n">
-        <v>27.16</v>
+        <v>6.53</v>
       </c>
       <c r="E25" t="n">
         <v>1.57</v>
@@ -5777,10 +6977,10 @@
         <v>-2</v>
       </c>
       <c r="C26" t="n">
-        <v>-20.35</v>
+        <v>-26.84</v>
       </c>
       <c r="D26" t="n">
-        <v>27.48</v>
+        <v>5.81</v>
       </c>
       <c r="E26" t="n">
         <v>1.57</v>
@@ -5797,10 +6997,10 @@
         <v>-2</v>
       </c>
       <c r="C27" t="n">
-        <v>-18.52</v>
+        <v>-26.45</v>
       </c>
       <c r="D27" t="n">
-        <v>27.76</v>
+        <v>5.16</v>
       </c>
       <c r="E27" t="n">
         <v>1.57</v>
@@ -5817,10 +7017,10 @@
         <v>-2</v>
       </c>
       <c r="C28" t="n">
-        <v>-16.67</v>
+        <v>-26.11</v>
       </c>
       <c r="D28" t="n">
-        <v>28.01</v>
+        <v>4.59</v>
       </c>
       <c r="E28" t="n">
         <v>1.57</v>
@@ -5837,10 +7037,10 @@
         <v>-2</v>
       </c>
       <c r="C29" t="n">
-        <v>-14.8</v>
+        <v>-25.8</v>
       </c>
       <c r="D29" t="n">
-        <v>28.23</v>
+        <v>4.08</v>
       </c>
       <c r="E29" t="n">
         <v>1.57</v>
@@ -5857,10 +7057,10 @@
         <v>-2</v>
       </c>
       <c r="C30" t="n">
-        <v>-12.92</v>
+        <v>-25.53</v>
       </c>
       <c r="D30" t="n">
-        <v>28.43</v>
+        <v>3.62</v>
       </c>
       <c r="E30" t="n">
         <v>1.57</v>
@@ -5874,16 +7074,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-1.93</v>
+        <v>-2</v>
       </c>
       <c r="C31" t="n">
-        <v>-11.02</v>
+        <v>-25.29</v>
       </c>
       <c r="D31" t="n">
-        <v>28.6</v>
+        <v>3.22</v>
       </c>
       <c r="E31" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
@@ -5894,16 +7094,16 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-1.73</v>
+        <v>-2</v>
       </c>
       <c r="C32" t="n">
-        <v>-9.130000000000001</v>
+        <v>-25.07</v>
       </c>
       <c r="D32" t="n">
-        <v>28.76</v>
+        <v>2.86</v>
       </c>
       <c r="E32" t="n">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
@@ -5914,16 +7114,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-1.33</v>
+        <v>-2</v>
       </c>
       <c r="C33" t="n">
-        <v>-7.25</v>
+        <v>-24.88</v>
       </c>
       <c r="D33" t="n">
-        <v>28.89</v>
+        <v>2.55</v>
       </c>
       <c r="E33" t="n">
-        <v>1.39</v>
+        <v>1.57</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
@@ -5934,16 +7134,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.72</v>
+        <v>-2</v>
       </c>
       <c r="C34" t="n">
-        <v>-5.43</v>
+        <v>-24.71</v>
       </c>
       <c r="D34" t="n">
-        <v>29.02</v>
+        <v>2.26</v>
       </c>
       <c r="E34" t="n">
-        <v>1.28</v>
+        <v>1.57</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
@@ -5954,16 +7154,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.13</v>
+        <v>-2</v>
       </c>
       <c r="C35" t="n">
-        <v>-3.69</v>
+        <v>-24.56</v>
       </c>
       <c r="D35" t="n">
-        <v>29.13</v>
+        <v>2.01</v>
       </c>
       <c r="E35" t="n">
-        <v>1.16</v>
+        <v>1.57</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
@@ -5974,16 +7174,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1.21</v>
+        <v>-2</v>
       </c>
       <c r="C36" t="n">
-        <v>-2.07</v>
+        <v>-24.43</v>
       </c>
       <c r="D36" t="n">
-        <v>29.22</v>
+        <v>1.79</v>
       </c>
       <c r="E36" t="n">
-        <v>1.02</v>
+        <v>1.57</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
@@ -5994,16 +7194,16 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>2.51</v>
+        <v>-2</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.63</v>
+        <v>-24.31</v>
       </c>
       <c r="D37" t="n">
-        <v>29.31</v>
+        <v>1.59</v>
       </c>
       <c r="E37" t="n">
-        <v>0.88</v>
+        <v>1.57</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
@@ -6014,16 +7214,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4.02</v>
+        <v>-2</v>
       </c>
       <c r="C38" t="n">
-        <v>0.61</v>
+        <v>-24.2</v>
       </c>
       <c r="D38" t="n">
-        <v>29.39</v>
+        <v>1.41</v>
       </c>
       <c r="E38" t="n">
-        <v>0.73</v>
+        <v>1.57</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
@@ -6034,16 +7234,16 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>5.7</v>
+        <v>-2</v>
       </c>
       <c r="C39" t="n">
-        <v>1.62</v>
+        <v>-24.11</v>
       </c>
       <c r="D39" t="n">
-        <v>29.45</v>
+        <v>1.26</v>
       </c>
       <c r="E39" t="n">
-        <v>0.58</v>
+        <v>1.57</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
@@ -6054,16 +7254,16 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>7.52</v>
+        <v>-2</v>
       </c>
       <c r="C40" t="n">
-        <v>2.37</v>
+        <v>-24.02</v>
       </c>
       <c r="D40" t="n">
-        <v>29.52</v>
+        <v>1.12</v>
       </c>
       <c r="E40" t="n">
-        <v>0.43</v>
+        <v>1.57</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
@@ -6074,16 +7274,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>9.43</v>
+        <v>-2</v>
       </c>
       <c r="C41" t="n">
-        <v>2.83</v>
+        <v>-23.95</v>
       </c>
       <c r="D41" t="n">
-        <v>29.57</v>
+        <v>0.99</v>
       </c>
       <c r="E41" t="n">
-        <v>0.28</v>
+        <v>1.57</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
@@ -6094,16 +7294,16 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>11.38</v>
+        <v>-2</v>
       </c>
       <c r="C42" t="n">
-        <v>3.11</v>
+        <v>-23.88</v>
       </c>
       <c r="D42" t="n">
-        <v>29.62</v>
+        <v>0.88</v>
       </c>
       <c r="E42" t="n">
-        <v>0.17</v>
+        <v>1.57</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>
@@ -6114,16 +7314,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>13.35</v>
+        <v>-2</v>
       </c>
       <c r="C43" t="n">
-        <v>3.26</v>
+        <v>-23.82</v>
       </c>
       <c r="D43" t="n">
-        <v>29.66</v>
+        <v>0.78</v>
       </c>
       <c r="E43" t="n">
-        <v>0.09</v>
+        <v>1.57</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
@@ -6134,16 +7334,16 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>15.33</v>
+        <v>-2</v>
       </c>
       <c r="C44" t="n">
-        <v>3.31</v>
+        <v>-23.77</v>
       </c>
       <c r="D44" t="n">
-        <v>29.7</v>
+        <v>0.7</v>
       </c>
       <c r="E44" t="n">
-        <v>0.04</v>
+        <v>1.57</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
@@ -6154,16 +7354,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>17.31</v>
+        <v>-2</v>
       </c>
       <c r="C45" t="n">
-        <v>3.29</v>
+        <v>-23.73</v>
       </c>
       <c r="D45" t="n">
-        <v>29.73</v>
+        <v>0.62</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>
@@ -6174,16 +7374,16 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>19.29</v>
+        <v>-2</v>
       </c>
       <c r="C46" t="n">
-        <v>3.23</v>
+        <v>-23.68</v>
       </c>
       <c r="D46" t="n">
-        <v>29.76</v>
+        <v>0.55</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.02</v>
+        <v>1.57</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
@@ -6194,16 +7394,16 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>21.27</v>
+        <v>-2</v>
       </c>
       <c r="C47" t="n">
-        <v>3.15</v>
+        <v>-23.65</v>
       </c>
       <c r="D47" t="n">
-        <v>29.79</v>
+        <v>0.49</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.04</v>
+        <v>1.57</v>
       </c>
       <c r="F47" t="b">
         <v>0</v>
@@ -6214,16 +7414,16 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>23.25</v>
+        <v>-2</v>
       </c>
       <c r="C48" t="n">
-        <v>3.05</v>
+        <v>-23.61</v>
       </c>
       <c r="D48" t="n">
-        <v>29.81</v>
+        <v>0.44</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.05</v>
+        <v>1.57</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
@@ -6234,16 +7434,16 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>25.24</v>
+        <v>-2</v>
       </c>
       <c r="C49" t="n">
-        <v>2.95</v>
+        <v>-23.59</v>
       </c>
       <c r="D49" t="n">
-        <v>29.83</v>
+        <v>0.39</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.05</v>
+        <v>1.57</v>
       </c>
       <c r="F49" t="b">
         <v>0</v>
@@ -6254,16 +7454,16 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>27.23</v>
+        <v>-2</v>
       </c>
       <c r="C50" t="n">
-        <v>2.84</v>
+        <v>-23.56</v>
       </c>
       <c r="D50" t="n">
-        <v>29.85</v>
+        <v>0.34</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.05</v>
+        <v>1.57</v>
       </c>
       <c r="F50" t="b">
         <v>0</v>
@@ -6274,16 +7474,16 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>29.21</v>
+        <v>-2</v>
       </c>
       <c r="C51" t="n">
-        <v>2.74</v>
+        <v>-23.54</v>
       </c>
       <c r="D51" t="n">
-        <v>29.87</v>
+        <v>0.31</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.05</v>
+        <v>1.57</v>
       </c>
       <c r="F51" t="b">
         <v>0</v>
@@ -6294,16 +7494,16 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>31.2</v>
+        <v>-2</v>
       </c>
       <c r="C52" t="n">
-        <v>2.65</v>
+        <v>-23.52</v>
       </c>
       <c r="D52" t="n">
-        <v>29.88</v>
+        <v>0.77</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.05</v>
+        <v>1.57</v>
       </c>
       <c r="F52" t="b">
         <v>0</v>
@@ -6314,16 +7514,16 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>33.19</v>
+        <v>-2</v>
       </c>
       <c r="C53" t="n">
-        <v>2.57</v>
+        <v>-23.47</v>
       </c>
       <c r="D53" t="n">
-        <v>29.9</v>
+        <v>1.19</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.04</v>
+        <v>1.57</v>
       </c>
       <c r="F53" t="b">
         <v>0</v>
@@ -6334,16 +7534,16 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>35.18</v>
+        <v>-2</v>
       </c>
       <c r="C54" t="n">
-        <v>2.49</v>
+        <v>-23.39</v>
       </c>
       <c r="D54" t="n">
-        <v>29.91</v>
+        <v>1.55</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.04</v>
+        <v>1.57</v>
       </c>
       <c r="F54" t="b">
         <v>0</v>
@@ -6354,16 +7554,16 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>37.18</v>
+        <v>-2</v>
       </c>
       <c r="C55" t="n">
-        <v>2.42</v>
+        <v>-23.28</v>
       </c>
       <c r="D55" t="n">
-        <v>29.92</v>
+        <v>1.88</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.04</v>
+        <v>1.57</v>
       </c>
       <c r="F55" t="b">
         <v>0</v>
@@ -6374,16 +7574,16 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>39.17</v>
+        <v>-2</v>
       </c>
       <c r="C56" t="n">
-        <v>2.36</v>
+        <v>-23.16</v>
       </c>
       <c r="D56" t="n">
-        <v>29.93</v>
+        <v>2.17</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.03</v>
+        <v>1.57</v>
       </c>
       <c r="F56" t="b">
         <v>0</v>
@@ -6394,16 +7594,16 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>41.16</v>
+        <v>-2</v>
       </c>
       <c r="C57" t="n">
-        <v>2.31</v>
+        <v>-23.01</v>
       </c>
       <c r="D57" t="n">
-        <v>29.93</v>
+        <v>2.43</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.03</v>
+        <v>1.57</v>
       </c>
       <c r="F57" t="b">
         <v>0</v>
@@ -6414,16 +7614,16 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>43.16</v>
+        <v>-2</v>
       </c>
       <c r="C58" t="n">
-        <v>2.26</v>
+        <v>-22.85</v>
       </c>
       <c r="D58" t="n">
-        <v>29.94</v>
+        <v>3.16</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.02</v>
+        <v>1.57</v>
       </c>
       <c r="F58" t="b">
         <v>0</v>
@@ -6434,16 +7634,16 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>45.16</v>
+        <v>-2</v>
       </c>
       <c r="C59" t="n">
-        <v>2.22</v>
+        <v>-22.64</v>
       </c>
       <c r="D59" t="n">
-        <v>29.95</v>
+        <v>3.81</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.02</v>
+        <v>1.57</v>
       </c>
       <c r="F59" t="b">
         <v>0</v>
@@ -6454,16 +7654,16 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>47.15</v>
+        <v>-2</v>
       </c>
       <c r="C60" t="n">
-        <v>2.19</v>
+        <v>-22.39</v>
       </c>
       <c r="D60" t="n">
-        <v>29.95</v>
+        <v>4.39</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.02</v>
+        <v>1.57</v>
       </c>
       <c r="F60" t="b">
         <v>0</v>
@@ -6474,16 +7674,16 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>49.15</v>
+        <v>-2</v>
       </c>
       <c r="C61" t="n">
-        <v>2.16</v>
+        <v>-22.09</v>
       </c>
       <c r="D61" t="n">
-        <v>29.96</v>
+        <v>4.9</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.02</v>
+        <v>1.57</v>
       </c>
       <c r="F61" t="b">
         <v>0</v>
@@ -6494,16 +7694,16 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>51.15</v>
+        <v>-2</v>
       </c>
       <c r="C62" t="n">
-        <v>2.13</v>
+        <v>-21.77</v>
       </c>
       <c r="D62" t="n">
-        <v>29.96</v>
+        <v>5.35</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.01</v>
+        <v>1.57</v>
       </c>
       <c r="F62" t="b">
         <v>0</v>
@@ -6514,16 +7714,16 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>53.14</v>
+        <v>-2</v>
       </c>
       <c r="C63" t="n">
-        <v>2.11</v>
+        <v>-21.41</v>
       </c>
       <c r="D63" t="n">
-        <v>29.97</v>
+        <v>5.76</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.01</v>
+        <v>1.57</v>
       </c>
       <c r="F63" t="b">
         <v>0</v>
@@ -6534,16 +7734,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>55.14</v>
+        <v>-2</v>
       </c>
       <c r="C64" t="n">
-        <v>2.09</v>
+        <v>-21.03</v>
       </c>
       <c r="D64" t="n">
-        <v>29.97</v>
+        <v>6.12</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.01</v>
+        <v>1.57</v>
       </c>
       <c r="F64" t="b">
         <v>0</v>
@@ -6554,19 +7754,19 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>57.14</v>
+        <v>-2</v>
       </c>
       <c r="C65" t="n">
-        <v>2.08</v>
+        <v>-20.62</v>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>6.44</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.01</v>
+        <v>1.57</v>
       </c>
       <c r="F65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -6574,19 +7774,19 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>57.14</v>
+        <v>-2</v>
       </c>
       <c r="C66" t="n">
-        <v>2.08</v>
+        <v>-20.19</v>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>6.72</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.01</v>
+        <v>1.57</v>
       </c>
       <c r="F66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -6594,19 +7794,19 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>57.14</v>
+        <v>-2</v>
       </c>
       <c r="C67" t="n">
-        <v>2.08</v>
+        <v>-19.74</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>6.98</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.01</v>
+        <v>1.57</v>
       </c>
       <c r="F67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -6614,19 +7814,19 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>57.14</v>
+        <v>-2</v>
       </c>
       <c r="C68" t="n">
-        <v>2.08</v>
+        <v>-19.27</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.01</v>
+        <v>1.57</v>
       </c>
       <c r="F68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -6634,19 +7834,19 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>57.14</v>
+        <v>-2</v>
       </c>
       <c r="C69" t="n">
-        <v>2.08</v>
+        <v>-18.79</v>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.01</v>
+        <v>1.57</v>
       </c>
       <c r="F69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -6654,19 +7854,19 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>57.14</v>
+        <v>-2</v>
       </c>
       <c r="C70" t="n">
-        <v>2.08</v>
+        <v>-18.3</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>7.58</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.01</v>
+        <v>1.57</v>
       </c>
       <c r="F70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -6674,19 +7874,19 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>57.14</v>
+        <v>-2</v>
       </c>
       <c r="C71" t="n">
-        <v>2.08</v>
+        <v>-17.8</v>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>7.74</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.01</v>
+        <v>1.57</v>
       </c>
       <c r="F71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -6694,19 +7894,19 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>57.14</v>
+        <v>-2</v>
       </c>
       <c r="C72" t="n">
-        <v>2.08</v>
+        <v>-17.28</v>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>7.88</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.01</v>
+        <v>1.57</v>
       </c>
       <c r="F72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -6714,19 +7914,19 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>57.14</v>
+        <v>-2</v>
       </c>
       <c r="C73" t="n">
-        <v>2.08</v>
+        <v>-16.76</v>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.01</v>
+        <v>1.57</v>
       </c>
       <c r="F73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -6734,19 +7934,19 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>57.14</v>
+        <v>-2</v>
       </c>
       <c r="C74" t="n">
-        <v>2.08</v>
+        <v>-16.22</v>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.01</v>
+        <v>1.57</v>
       </c>
       <c r="F74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -6754,19 +7954,19 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>57.14</v>
+        <v>-2</v>
       </c>
       <c r="C75" t="n">
-        <v>2.08</v>
+        <v>-15.68</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.01</v>
+        <v>1.57</v>
       </c>
       <c r="F75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -6774,19 +7974,19 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>57.14</v>
+        <v>-2</v>
       </c>
       <c r="C76" t="n">
-        <v>2.08</v>
+        <v>-15.13</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.01</v>
+        <v>1.57</v>
       </c>
       <c r="F76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -6794,19 +7994,19 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>57.14</v>
+        <v>-2</v>
       </c>
       <c r="C77" t="n">
-        <v>2.08</v>
+        <v>-14.58</v>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.01</v>
+        <v>1.57</v>
       </c>
       <c r="F77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -6814,19 +8014,19 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>57.14</v>
+        <v>-2</v>
       </c>
       <c r="C78" t="n">
-        <v>2.08</v>
+        <v>-14.02</v>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.01</v>
+        <v>1.57</v>
       </c>
       <c r="F78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -6834,19 +8034,419 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>57.14</v>
+        <v>-2</v>
       </c>
       <c r="C79" t="n">
-        <v>2.08</v>
+        <v>-13.46</v>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>8.51</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.01</v>
+        <v>1.57</v>
       </c>
       <c r="F79" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>-2.06</v>
+      </c>
+      <c r="C80" t="n">
+        <v>-12.89</v>
+      </c>
+      <c r="D80" t="n">
+        <v>8.56</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>-2.09</v>
+      </c>
+      <c r="C81" t="n">
+        <v>-12.32</v>
+      </c>
+      <c r="D81" t="n">
+        <v>8.609999999999999</v>
+      </c>
+      <c r="E81" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>-2.09</v>
+      </c>
+      <c r="C82" t="n">
+        <v>-11.75</v>
+      </c>
+      <c r="D82" t="n">
+        <v>8.65</v>
+      </c>
+      <c r="E82" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="F82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>-2.05</v>
+      </c>
+      <c r="C83" t="n">
+        <v>-11.17</v>
+      </c>
+      <c r="D83" t="n">
+        <v>8.69</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="F83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C84" t="n">
+        <v>-10.6</v>
+      </c>
+      <c r="D84" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="F84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>-1.92</v>
+      </c>
+      <c r="C85" t="n">
+        <v>-10.02</v>
+      </c>
+      <c r="D85" t="n">
+        <v>8.76</v>
+      </c>
+      <c r="E85" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="F85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>-1.82</v>
+      </c>
+      <c r="C86" t="n">
+        <v>-9.449999999999999</v>
+      </c>
+      <c r="D86" t="n">
+        <v>8.779999999999999</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F86" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>-1.7</v>
+      </c>
+      <c r="C87" t="n">
+        <v>-8.869999999999999</v>
+      </c>
+      <c r="D87" t="n">
+        <v>8.81</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="F87" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>-1.55</v>
+      </c>
+      <c r="C88" t="n">
+        <v>-8.31</v>
+      </c>
+      <c r="D88" t="n">
+        <v>8.83</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="F88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>-1.38</v>
+      </c>
+      <c r="C89" t="n">
+        <v>-7.74</v>
+      </c>
+      <c r="D89" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="F89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>-1.19</v>
+      </c>
+      <c r="C90" t="n">
+        <v>-7.18</v>
+      </c>
+      <c r="D90" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="F90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>-0.97</v>
+      </c>
+      <c r="C91" t="n">
+        <v>-6.63</v>
+      </c>
+      <c r="D91" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="F91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>-0.73</v>
+      </c>
+      <c r="C92" t="n">
+        <v>-6.09</v>
+      </c>
+      <c r="D92" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="F92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>-0.47</v>
+      </c>
+      <c r="C93" t="n">
+        <v>-5.56</v>
+      </c>
+      <c r="D93" t="n">
+        <v>8.91</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="F93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>-0.18</v>
+      </c>
+      <c r="C94" t="n">
+        <v>-5.04</v>
+      </c>
+      <c r="D94" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="C95" t="n">
+        <v>-4.53</v>
+      </c>
+      <c r="D95" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="C96" t="n">
+        <v>-4.04</v>
+      </c>
+      <c r="D96" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="E96" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="F96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C97" t="n">
+        <v>-3.56</v>
+      </c>
+      <c r="D97" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="C98" t="n">
+        <v>-3.1</v>
+      </c>
+      <c r="D98" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="F98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="C99" t="n">
+        <v>-2.67</v>
+      </c>
+      <c r="D99" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F99" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
